--- a/Расписание работ в ЦУП.xlsx
+++ b/Расписание работ в ЦУП.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godli\OneDrive\Документы\VolgaSpace\new-orbitron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37893DC-20F7-43D6-A920-344DE10B69E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E178DBEB-867E-4AB9-A30F-98DF7DEED6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13VII-22X" sheetId="1" r:id="rId1"/>
-    <sheet name="11.23" sheetId="2" r:id="rId2"/>
-    <sheet name="01.24" sheetId="4" r:id="rId3"/>
-    <sheet name="Операторы" sheetId="3" r:id="rId4"/>
+    <sheet name="12.23" sheetId="2" r:id="rId2"/>
+    <sheet name="Операторы" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="108">
   <si>
     <t>Список операторов</t>
   </si>
@@ -353,9 +352,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm"/>
+    <numFmt numFmtId="166" formatCode="d\.m\.yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -679,24 +679,11 @@
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -719,40 +706,9 @@
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
@@ -775,16 +731,60 @@
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,7 +871,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,25 +914,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -948,28 +938,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2648,8 +2639,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2662,36 +2653,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43">
+      <c r="A1" s="69"/>
+      <c r="B1" s="42">
         <v>45222</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="42">
         <v>45223</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="42">
         <v>45224</v>
       </c>
-      <c r="E1" s="43">
+      <c r="E1" s="42">
         <v>45225</v>
       </c>
-      <c r="F1" s="43">
+      <c r="F1" s="42">
         <v>45226</v>
       </c>
-      <c r="G1" s="44">
+      <c r="G1" s="43">
         <v>45227</v>
       </c>
-      <c r="H1" s="45">
+      <c r="H1" s="44">
         <v>45228</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>103</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="45" t="s">
         <v>103</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -2699,31 +2690,31 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="45">
         <v>1</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -2732,7 +2723,7 @@
       <c r="L2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="46">
+      <c r="N2" s="45">
         <v>22</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -2749,31 +2740,31 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="45">
         <v>2</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -2782,7 +2773,7 @@
       <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="45">
         <v>23</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -2793,29 +2784,29 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55">
         <v>45229</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="55">
         <v>45230</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <v>45231</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="55">
         <v>45232</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="55">
         <v>45233</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="56">
         <v>45234</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="57">
         <v>45235</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="45">
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -2824,7 +2815,7 @@
       <c r="L4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="45">
         <v>24</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -2835,31 +2826,31 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="45">
         <v>4</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -2868,7 +2859,7 @@
       <c r="L5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="45">
         <v>25</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -2879,31 +2870,31 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="45">
         <v>5</v>
       </c>
       <c r="K6" s="32" t="s">
@@ -2912,7 +2903,7 @@
       <c r="L6" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="45">
         <v>26</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -2923,29 +2914,29 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55">
         <v>45236</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="55">
         <v>45237</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="55">
         <v>45238</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="55">
         <v>45239</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="55">
         <v>45240</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="56">
         <v>45241</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="57">
         <v>45242</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="45">
         <v>6</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -2954,7 +2945,7 @@
       <c r="L7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="45">
         <v>27</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -2965,31 +2956,31 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="45">
         <v>7</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -2998,7 +2989,7 @@
       <c r="L8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="45">
         <v>28</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -3009,31 +3000,31 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="45">
         <v>8</v>
       </c>
       <c r="K9" s="32" t="s">
@@ -3042,7 +3033,7 @@
       <c r="L9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="45">
         <v>29</v>
       </c>
       <c r="O9" s="6" t="s">
@@ -3053,29 +3044,29 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55">
         <v>45243</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="55">
         <v>45244</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="55">
         <v>45245</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>45246</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <v>45247</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="56">
         <v>45248</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="57">
         <v>45249</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="45">
         <v>9</v>
       </c>
       <c r="K10" s="32" t="s">
@@ -3084,7 +3075,7 @@
       <c r="L10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="45">
         <v>30</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -3095,31 +3086,31 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="45">
         <v>10</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -3128,7 +3119,7 @@
       <c r="L11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="45">
         <v>31</v>
       </c>
       <c r="O11" s="6" t="s">
@@ -3139,31 +3130,31 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="45">
         <v>11</v>
       </c>
       <c r="K12" s="33" t="s">
@@ -3172,7 +3163,7 @@
       <c r="L12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="45">
         <v>32</v>
       </c>
       <c r="O12" s="6" t="s">
@@ -3183,29 +3174,29 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55">
         <v>45250</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="55">
         <v>45251</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="55">
         <v>45252</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="55">
         <v>45253</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="55">
         <v>45254</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="56">
         <v>45255</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="57">
         <v>45256</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="45">
         <v>12</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -3214,7 +3205,7 @@
       <c r="L13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="45">
         <v>33</v>
       </c>
       <c r="O13" s="6" t="s">
@@ -3225,31 +3216,31 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="45">
         <v>13</v>
       </c>
       <c r="K14" s="33" t="s">
@@ -3258,7 +3249,7 @@
       <c r="L14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="45">
         <v>34</v>
       </c>
       <c r="O14" s="6" t="s">
@@ -3269,31 +3260,31 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="46">
+      <c r="H15" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="45">
         <v>14</v>
       </c>
       <c r="K15" s="33" t="s">
@@ -3302,7 +3293,7 @@
       <c r="L15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="45">
         <v>35</v>
       </c>
       <c r="O15" s="6" t="s">
@@ -3313,29 +3304,29 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="59"/>
-      <c r="B16" s="56">
+      <c r="A16" s="58"/>
+      <c r="B16" s="55">
         <v>45257</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <v>45258</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="55">
         <v>45259</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <v>45260</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="55">
         <v>45261</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="56">
         <v>45262</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="57">
         <v>45263</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="45">
         <v>15</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -3344,7 +3335,7 @@
       <c r="L16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="45">
         <v>36</v>
       </c>
       <c r="O16" s="6" t="s">
@@ -3355,31 +3346,31 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="46">
+      <c r="H17" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="45">
         <v>16</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -3388,7 +3379,7 @@
       <c r="L17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="45">
         <v>37</v>
       </c>
       <c r="O17" s="6" t="s">
@@ -3399,31 +3390,31 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="46">
+      <c r="H18" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="45">
         <v>17</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -3432,7 +3423,7 @@
       <c r="L18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="45">
         <v>38</v>
       </c>
       <c r="O18" s="6" t="s">
@@ -3443,29 +3434,29 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55">
         <v>45264</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="55">
         <v>45265</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="55">
         <v>45266</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="55">
         <v>45267</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="55">
         <v>45268</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="56">
         <v>45269</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="57">
         <v>45270</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="45">
         <v>18</v>
       </c>
       <c r="K19" s="37" t="s">
@@ -3474,7 +3465,7 @@
       <c r="L19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="45">
         <v>39</v>
       </c>
       <c r="O19" s="6" t="s">
@@ -3485,17 +3476,31 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="J20" s="46">
+      <c r="B20" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="45">
         <v>19</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -3504,7 +3509,7 @@
       <c r="L20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="45">
         <v>40</v>
       </c>
       <c r="O20" s="6" t="s">
@@ -3515,17 +3520,17 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
-      <c r="J21" s="46">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="J21" s="45">
         <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -3534,7 +3539,7 @@
       <c r="L21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="45">
         <v>41</v>
       </c>
       <c r="O21" s="32" t="s">
@@ -3545,29 +3550,29 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55">
         <v>45271</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="55">
         <v>45272</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="55">
         <v>45273</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="55">
         <v>45274</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="59">
         <v>45275</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="56">
         <v>45276</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="57">
         <v>45277</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="45">
         <v>21</v>
       </c>
       <c r="K22" s="6" t="s">
@@ -3576,7 +3581,7 @@
       <c r="L22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="45">
         <v>42</v>
       </c>
       <c r="O22" s="32" t="s">
@@ -3587,3069 +3592,3107 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="J23" s="46"/>
-      <c r="N23" s="46"/>
+      <c r="B23" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="N23" s="45"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
-      <c r="J24" s="46"/>
-      <c r="N24" s="66"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="J24" s="45"/>
+      <c r="N24" s="60"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55">
         <v>45278</v>
       </c>
-      <c r="C25" s="56">
+      <c r="C25" s="55">
         <v>45279</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="55">
         <v>45280</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="55">
         <v>45281</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="55">
         <v>45282</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="56">
         <v>45283</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H25" s="57">
         <v>45284</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="N25" s="66"/>
+      <c r="J25" s="45"/>
+      <c r="N25" s="60"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="J26" s="46"/>
-      <c r="N26" s="66"/>
+      <c r="B26" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="N26" s="60"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="J27" s="46"/>
-      <c r="N27" s="66"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="J27" s="45"/>
+      <c r="N27" s="60"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55">
         <v>45285</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="55">
         <v>45286</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="55">
         <v>45287</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="55">
         <v>45288</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="55">
         <v>45289</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="56">
         <v>45290</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="57">
         <v>45291</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="N28" s="66"/>
+      <c r="J28" s="45"/>
+      <c r="N28" s="60"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="B29" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="G29" s="61"/>
       <c r="H29" s="62"/>
-      <c r="J29" s="46"/>
-      <c r="N29" s="66"/>
+      <c r="J29" s="45"/>
+      <c r="N29" s="60"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
-      <c r="J30" s="46"/>
-      <c r="N30" s="66"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
+      <c r="J30" s="45"/>
+      <c r="N30" s="60"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="71"/>
-      <c r="J31" s="46"/>
-      <c r="N31" s="66"/>
+      <c r="A31" s="67"/>
+      <c r="J31" s="45"/>
+      <c r="N31" s="60"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="72"/>
-      <c r="J32" s="46"/>
-      <c r="N32" s="66"/>
+      <c r="A32" s="68"/>
+      <c r="J32" s="45"/>
+      <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="72"/>
-      <c r="J33" s="46"/>
-      <c r="N33" s="66"/>
+      <c r="A33" s="68"/>
+      <c r="J33" s="45"/>
+      <c r="N33" s="60"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="J34" s="46"/>
-      <c r="N34" s="66"/>
+      <c r="J34" s="45"/>
+      <c r="N34" s="60"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="J35" s="46"/>
-      <c r="N35" s="66"/>
+      <c r="J35" s="45"/>
+      <c r="N35" s="60"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="J36" s="46"/>
-      <c r="N36" s="66"/>
+      <c r="J36" s="45"/>
+      <c r="N36" s="60"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="J37" s="46"/>
-      <c r="N37" s="66"/>
+      <c r="J37" s="45"/>
+      <c r="N37" s="60"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="J38" s="46"/>
-      <c r="N38" s="66"/>
+      <c r="J38" s="45"/>
+      <c r="N38" s="60"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="J39" s="46"/>
-      <c r="N39" s="66"/>
+      <c r="J39" s="45"/>
+      <c r="N39" s="60"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="J40" s="46"/>
-      <c r="N40" s="66"/>
+      <c r="J40" s="45"/>
+      <c r="N40" s="60"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="J41" s="46"/>
+      <c r="J41" s="45"/>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
-      <c r="N41" s="66"/>
+      <c r="N41" s="60"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="J42" s="46"/>
+      <c r="J42" s="45"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
-      <c r="N42" s="66"/>
+      <c r="N42" s="60"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="N43" s="66"/>
+      <c r="N43" s="60"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="N44" s="66"/>
+      <c r="N44" s="60"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="N45" s="66"/>
+      <c r="N45" s="60"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="N46" s="66"/>
+      <c r="N46" s="60"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="N47" s="66"/>
+      <c r="N47" s="60"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="N48" s="66"/>
+      <c r="N48" s="60"/>
     </row>
     <row r="49" spans="14:14">
-      <c r="N49" s="66"/>
+      <c r="N49" s="60"/>
     </row>
     <row r="50" spans="14:14">
-      <c r="N50" s="66"/>
+      <c r="N50" s="60"/>
     </row>
     <row r="51" spans="14:14">
-      <c r="N51" s="66"/>
+      <c r="N51" s="60"/>
     </row>
     <row r="52" spans="14:14">
-      <c r="N52" s="66"/>
+      <c r="N52" s="60"/>
     </row>
     <row r="53" spans="14:14">
-      <c r="N53" s="66"/>
+      <c r="N53" s="60"/>
     </row>
     <row r="54" spans="14:14">
-      <c r="N54" s="66"/>
+      <c r="N54" s="60"/>
     </row>
     <row r="55" spans="14:14">
-      <c r="N55" s="66"/>
+      <c r="N55" s="60"/>
     </row>
     <row r="56" spans="14:14">
-      <c r="N56" s="66"/>
+      <c r="N56" s="60"/>
     </row>
     <row r="57" spans="14:14">
-      <c r="N57" s="66"/>
+      <c r="N57" s="60"/>
     </row>
     <row r="58" spans="14:14">
-      <c r="N58" s="66"/>
+      <c r="N58" s="60"/>
     </row>
     <row r="59" spans="14:14">
-      <c r="N59" s="66"/>
+      <c r="N59" s="60"/>
     </row>
     <row r="60" spans="14:14">
-      <c r="N60" s="66"/>
+      <c r="N60" s="60"/>
     </row>
     <row r="61" spans="14:14">
-      <c r="N61" s="66"/>
+      <c r="N61" s="60"/>
     </row>
     <row r="62" spans="14:14">
-      <c r="N62" s="66"/>
+      <c r="N62" s="60"/>
     </row>
     <row r="63" spans="14:14">
-      <c r="N63" s="66"/>
+      <c r="N63" s="60"/>
     </row>
     <row r="64" spans="14:14">
-      <c r="N64" s="66"/>
+      <c r="N64" s="60"/>
     </row>
     <row r="65" spans="14:14">
-      <c r="N65" s="66"/>
+      <c r="N65" s="60"/>
     </row>
     <row r="66" spans="14:14">
-      <c r="N66" s="66"/>
+      <c r="N66" s="60"/>
     </row>
     <row r="67" spans="14:14">
-      <c r="N67" s="66"/>
+      <c r="N67" s="60"/>
     </row>
     <row r="68" spans="14:14">
-      <c r="N68" s="66"/>
+      <c r="N68" s="60"/>
     </row>
     <row r="69" spans="14:14">
-      <c r="N69" s="66"/>
+      <c r="N69" s="60"/>
     </row>
     <row r="70" spans="14:14">
-      <c r="N70" s="66"/>
+      <c r="N70" s="60"/>
     </row>
     <row r="71" spans="14:14">
-      <c r="N71" s="66"/>
+      <c r="N71" s="60"/>
     </row>
     <row r="72" spans="14:14">
-      <c r="N72" s="66"/>
+      <c r="N72" s="60"/>
     </row>
     <row r="73" spans="14:14">
-      <c r="N73" s="66"/>
+      <c r="N73" s="60"/>
     </row>
     <row r="74" spans="14:14">
-      <c r="N74" s="66"/>
+      <c r="N74" s="60"/>
     </row>
     <row r="75" spans="14:14">
-      <c r="N75" s="66"/>
+      <c r="N75" s="60"/>
     </row>
     <row r="76" spans="14:14">
-      <c r="N76" s="66"/>
+      <c r="N76" s="60"/>
     </row>
     <row r="77" spans="14:14">
-      <c r="N77" s="66"/>
+      <c r="N77" s="60"/>
     </row>
     <row r="78" spans="14:14">
-      <c r="N78" s="66"/>
+      <c r="N78" s="60"/>
     </row>
     <row r="79" spans="14:14">
-      <c r="N79" s="66"/>
+      <c r="N79" s="60"/>
     </row>
     <row r="80" spans="14:14">
-      <c r="N80" s="66"/>
+      <c r="N80" s="60"/>
     </row>
     <row r="81" spans="14:14">
-      <c r="N81" s="66"/>
+      <c r="N81" s="60"/>
     </row>
     <row r="82" spans="14:14">
-      <c r="N82" s="66"/>
+      <c r="N82" s="60"/>
     </row>
     <row r="83" spans="14:14">
-      <c r="N83" s="66"/>
+      <c r="N83" s="60"/>
     </row>
     <row r="84" spans="14:14">
-      <c r="N84" s="66"/>
+      <c r="N84" s="60"/>
     </row>
     <row r="85" spans="14:14">
-      <c r="N85" s="66"/>
+      <c r="N85" s="60"/>
     </row>
     <row r="86" spans="14:14">
-      <c r="N86" s="66"/>
+      <c r="N86" s="60"/>
     </row>
     <row r="87" spans="14:14">
-      <c r="N87" s="66"/>
+      <c r="N87" s="60"/>
     </row>
     <row r="88" spans="14:14">
-      <c r="N88" s="66"/>
+      <c r="N88" s="60"/>
     </row>
     <row r="89" spans="14:14">
-      <c r="N89" s="66"/>
+      <c r="N89" s="60"/>
     </row>
     <row r="90" spans="14:14">
-      <c r="N90" s="66"/>
+      <c r="N90" s="60"/>
     </row>
     <row r="91" spans="14:14">
-      <c r="N91" s="66"/>
+      <c r="N91" s="60"/>
     </row>
     <row r="92" spans="14:14">
-      <c r="N92" s="66"/>
+      <c r="N92" s="60"/>
     </row>
     <row r="93" spans="14:14">
-      <c r="N93" s="66"/>
+      <c r="N93" s="60"/>
     </row>
     <row r="94" spans="14:14">
-      <c r="N94" s="66"/>
+      <c r="N94" s="60"/>
     </row>
     <row r="95" spans="14:14">
-      <c r="N95" s="66"/>
+      <c r="N95" s="60"/>
     </row>
     <row r="96" spans="14:14">
-      <c r="N96" s="66"/>
+      <c r="N96" s="60"/>
     </row>
     <row r="97" spans="14:14">
-      <c r="N97" s="66"/>
+      <c r="N97" s="60"/>
     </row>
     <row r="98" spans="14:14">
-      <c r="N98" s="66"/>
+      <c r="N98" s="60"/>
     </row>
     <row r="99" spans="14:14">
-      <c r="N99" s="66"/>
+      <c r="N99" s="60"/>
     </row>
     <row r="100" spans="14:14">
-      <c r="N100" s="66"/>
+      <c r="N100" s="60"/>
     </row>
     <row r="101" spans="14:14">
-      <c r="N101" s="66"/>
+      <c r="N101" s="60"/>
     </row>
     <row r="102" spans="14:14">
-      <c r="N102" s="66"/>
+      <c r="N102" s="60"/>
     </row>
     <row r="103" spans="14:14">
-      <c r="N103" s="66"/>
+      <c r="N103" s="60"/>
     </row>
     <row r="104" spans="14:14">
-      <c r="N104" s="66"/>
+      <c r="N104" s="60"/>
     </row>
     <row r="105" spans="14:14">
-      <c r="N105" s="66"/>
+      <c r="N105" s="60"/>
     </row>
     <row r="106" spans="14:14">
-      <c r="N106" s="66"/>
+      <c r="N106" s="60"/>
     </row>
     <row r="107" spans="14:14">
-      <c r="N107" s="66"/>
+      <c r="N107" s="60"/>
     </row>
     <row r="108" spans="14:14">
-      <c r="N108" s="66"/>
+      <c r="N108" s="60"/>
     </row>
     <row r="109" spans="14:14">
-      <c r="N109" s="66"/>
+      <c r="N109" s="60"/>
     </row>
     <row r="110" spans="14:14">
-      <c r="N110" s="66"/>
+      <c r="N110" s="60"/>
     </row>
     <row r="111" spans="14:14">
-      <c r="N111" s="66"/>
+      <c r="N111" s="60"/>
     </row>
     <row r="112" spans="14:14">
-      <c r="N112" s="66"/>
+      <c r="N112" s="60"/>
     </row>
     <row r="113" spans="14:14">
-      <c r="N113" s="66"/>
+      <c r="N113" s="60"/>
     </row>
     <row r="114" spans="14:14">
-      <c r="N114" s="66"/>
+      <c r="N114" s="60"/>
     </row>
     <row r="115" spans="14:14">
-      <c r="N115" s="66"/>
+      <c r="N115" s="60"/>
     </row>
     <row r="116" spans="14:14">
-      <c r="N116" s="66"/>
+      <c r="N116" s="60"/>
     </row>
     <row r="117" spans="14:14">
-      <c r="N117" s="66"/>
+      <c r="N117" s="60"/>
     </row>
     <row r="118" spans="14:14">
-      <c r="N118" s="66"/>
+      <c r="N118" s="60"/>
     </row>
     <row r="119" spans="14:14">
-      <c r="N119" s="66"/>
+      <c r="N119" s="60"/>
     </row>
     <row r="120" spans="14:14">
-      <c r="N120" s="66"/>
+      <c r="N120" s="60"/>
     </row>
     <row r="121" spans="14:14">
-      <c r="N121" s="66"/>
+      <c r="N121" s="60"/>
     </row>
     <row r="122" spans="14:14">
-      <c r="N122" s="66"/>
+      <c r="N122" s="60"/>
     </row>
     <row r="123" spans="14:14">
-      <c r="N123" s="66"/>
+      <c r="N123" s="60"/>
     </row>
     <row r="124" spans="14:14">
-      <c r="N124" s="66"/>
+      <c r="N124" s="60"/>
     </row>
     <row r="125" spans="14:14">
-      <c r="N125" s="66"/>
+      <c r="N125" s="60"/>
     </row>
     <row r="126" spans="14:14">
-      <c r="N126" s="66"/>
+      <c r="N126" s="60"/>
     </row>
     <row r="127" spans="14:14">
-      <c r="N127" s="66"/>
+      <c r="N127" s="60"/>
     </row>
     <row r="128" spans="14:14">
-      <c r="N128" s="66"/>
+      <c r="N128" s="60"/>
     </row>
     <row r="129" spans="14:14">
-      <c r="N129" s="66"/>
+      <c r="N129" s="60"/>
     </row>
     <row r="130" spans="14:14">
-      <c r="N130" s="66"/>
+      <c r="N130" s="60"/>
     </row>
     <row r="131" spans="14:14">
-      <c r="N131" s="66"/>
+      <c r="N131" s="60"/>
     </row>
     <row r="132" spans="14:14">
-      <c r="N132" s="66"/>
+      <c r="N132" s="60"/>
     </row>
     <row r="133" spans="14:14">
-      <c r="N133" s="66"/>
+      <c r="N133" s="60"/>
     </row>
     <row r="134" spans="14:14">
-      <c r="N134" s="66"/>
+      <c r="N134" s="60"/>
     </row>
     <row r="135" spans="14:14">
-      <c r="N135" s="66"/>
+      <c r="N135" s="60"/>
     </row>
     <row r="136" spans="14:14">
-      <c r="N136" s="66"/>
+      <c r="N136" s="60"/>
     </row>
     <row r="137" spans="14:14">
-      <c r="N137" s="66"/>
+      <c r="N137" s="60"/>
     </row>
     <row r="138" spans="14:14">
-      <c r="N138" s="66"/>
+      <c r="N138" s="60"/>
     </row>
     <row r="139" spans="14:14">
-      <c r="N139" s="66"/>
+      <c r="N139" s="60"/>
     </row>
     <row r="140" spans="14:14">
-      <c r="N140" s="66"/>
+      <c r="N140" s="60"/>
     </row>
     <row r="141" spans="14:14">
-      <c r="N141" s="66"/>
+      <c r="N141" s="60"/>
     </row>
     <row r="142" spans="14:14">
-      <c r="N142" s="66"/>
+      <c r="N142" s="60"/>
     </row>
     <row r="143" spans="14:14">
-      <c r="N143" s="66"/>
+      <c r="N143" s="60"/>
     </row>
     <row r="144" spans="14:14">
-      <c r="N144" s="66"/>
+      <c r="N144" s="60"/>
     </row>
     <row r="145" spans="14:14">
-      <c r="N145" s="66"/>
+      <c r="N145" s="60"/>
     </row>
     <row r="146" spans="14:14">
-      <c r="N146" s="66"/>
+      <c r="N146" s="60"/>
     </row>
     <row r="147" spans="14:14">
-      <c r="N147" s="66"/>
+      <c r="N147" s="60"/>
     </row>
     <row r="148" spans="14:14">
-      <c r="N148" s="66"/>
+      <c r="N148" s="60"/>
     </row>
     <row r="149" spans="14:14">
-      <c r="N149" s="66"/>
+      <c r="N149" s="60"/>
     </row>
     <row r="150" spans="14:14">
-      <c r="N150" s="66"/>
+      <c r="N150" s="60"/>
     </row>
     <row r="151" spans="14:14">
-      <c r="N151" s="66"/>
+      <c r="N151" s="60"/>
     </row>
     <row r="152" spans="14:14">
-      <c r="N152" s="66"/>
+      <c r="N152" s="60"/>
     </row>
     <row r="153" spans="14:14">
-      <c r="N153" s="66"/>
+      <c r="N153" s="60"/>
     </row>
     <row r="154" spans="14:14">
-      <c r="N154" s="66"/>
+      <c r="N154" s="60"/>
     </row>
     <row r="155" spans="14:14">
-      <c r="N155" s="66"/>
+      <c r="N155" s="60"/>
     </row>
     <row r="156" spans="14:14">
-      <c r="N156" s="66"/>
+      <c r="N156" s="60"/>
     </row>
     <row r="157" spans="14:14">
-      <c r="N157" s="66"/>
+      <c r="N157" s="60"/>
     </row>
     <row r="158" spans="14:14">
-      <c r="N158" s="66"/>
+      <c r="N158" s="60"/>
     </row>
     <row r="159" spans="14:14">
-      <c r="N159" s="66"/>
+      <c r="N159" s="60"/>
     </row>
     <row r="160" spans="14:14">
-      <c r="N160" s="66"/>
+      <c r="N160" s="60"/>
     </row>
     <row r="161" spans="14:14">
-      <c r="N161" s="66"/>
+      <c r="N161" s="60"/>
     </row>
     <row r="162" spans="14:14">
-      <c r="N162" s="66"/>
+      <c r="N162" s="60"/>
     </row>
     <row r="163" spans="14:14">
-      <c r="N163" s="66"/>
+      <c r="N163" s="60"/>
     </row>
     <row r="164" spans="14:14">
-      <c r="N164" s="66"/>
+      <c r="N164" s="60"/>
     </row>
     <row r="165" spans="14:14">
-      <c r="N165" s="66"/>
+      <c r="N165" s="60"/>
     </row>
     <row r="166" spans="14:14">
-      <c r="N166" s="66"/>
+      <c r="N166" s="60"/>
     </row>
     <row r="167" spans="14:14">
-      <c r="N167" s="66"/>
+      <c r="N167" s="60"/>
     </row>
     <row r="168" spans="14:14">
-      <c r="N168" s="66"/>
+      <c r="N168" s="60"/>
     </row>
     <row r="169" spans="14:14">
-      <c r="N169" s="66"/>
+      <c r="N169" s="60"/>
     </row>
     <row r="170" spans="14:14">
-      <c r="N170" s="66"/>
+      <c r="N170" s="60"/>
     </row>
     <row r="171" spans="14:14">
-      <c r="N171" s="66"/>
+      <c r="N171" s="60"/>
     </row>
     <row r="172" spans="14:14">
-      <c r="N172" s="66"/>
+      <c r="N172" s="60"/>
     </row>
     <row r="173" spans="14:14">
-      <c r="N173" s="66"/>
+      <c r="N173" s="60"/>
     </row>
     <row r="174" spans="14:14">
-      <c r="N174" s="66"/>
+      <c r="N174" s="60"/>
     </row>
     <row r="175" spans="14:14">
-      <c r="N175" s="66"/>
+      <c r="N175" s="60"/>
     </row>
     <row r="176" spans="14:14">
-      <c r="N176" s="66"/>
+      <c r="N176" s="60"/>
     </row>
     <row r="177" spans="14:14">
-      <c r="N177" s="66"/>
+      <c r="N177" s="60"/>
     </row>
     <row r="178" spans="14:14">
-      <c r="N178" s="66"/>
+      <c r="N178" s="60"/>
     </row>
     <row r="179" spans="14:14">
-      <c r="N179" s="66"/>
+      <c r="N179" s="60"/>
     </row>
     <row r="180" spans="14:14">
-      <c r="N180" s="66"/>
+      <c r="N180" s="60"/>
     </row>
     <row r="181" spans="14:14">
-      <c r="N181" s="66"/>
+      <c r="N181" s="60"/>
     </row>
     <row r="182" spans="14:14">
-      <c r="N182" s="66"/>
+      <c r="N182" s="60"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="66"/>
+      <c r="N183" s="60"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="66"/>
+      <c r="N184" s="60"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="66"/>
+      <c r="N185" s="60"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="66"/>
+      <c r="N186" s="60"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="66"/>
+      <c r="N187" s="60"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="66"/>
+      <c r="N188" s="60"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="66"/>
+      <c r="N189" s="60"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="66"/>
+      <c r="N190" s="60"/>
     </row>
     <row r="191" spans="14:14">
-      <c r="N191" s="66"/>
+      <c r="N191" s="60"/>
     </row>
     <row r="192" spans="14:14">
-      <c r="N192" s="66"/>
+      <c r="N192" s="60"/>
     </row>
     <row r="193" spans="14:14">
-      <c r="N193" s="66"/>
+      <c r="N193" s="60"/>
     </row>
     <row r="194" spans="14:14">
-      <c r="N194" s="66"/>
+      <c r="N194" s="60"/>
     </row>
     <row r="195" spans="14:14">
-      <c r="N195" s="66"/>
+      <c r="N195" s="60"/>
     </row>
     <row r="196" spans="14:14">
-      <c r="N196" s="66"/>
+      <c r="N196" s="60"/>
     </row>
     <row r="197" spans="14:14">
-      <c r="N197" s="66"/>
+      <c r="N197" s="60"/>
     </row>
     <row r="198" spans="14:14">
-      <c r="N198" s="66"/>
+      <c r="N198" s="60"/>
     </row>
     <row r="199" spans="14:14">
-      <c r="N199" s="66"/>
+      <c r="N199" s="60"/>
     </row>
     <row r="200" spans="14:14">
-      <c r="N200" s="66"/>
+      <c r="N200" s="60"/>
     </row>
     <row r="201" spans="14:14">
-      <c r="N201" s="66"/>
+      <c r="N201" s="60"/>
     </row>
     <row r="202" spans="14:14">
-      <c r="N202" s="66"/>
+      <c r="N202" s="60"/>
     </row>
     <row r="203" spans="14:14">
-      <c r="N203" s="66"/>
+      <c r="N203" s="60"/>
     </row>
     <row r="204" spans="14:14">
-      <c r="N204" s="66"/>
+      <c r="N204" s="60"/>
     </row>
     <row r="205" spans="14:14">
-      <c r="N205" s="66"/>
+      <c r="N205" s="60"/>
     </row>
     <row r="206" spans="14:14">
-      <c r="N206" s="66"/>
+      <c r="N206" s="60"/>
     </row>
     <row r="207" spans="14:14">
-      <c r="N207" s="66"/>
+      <c r="N207" s="60"/>
     </row>
     <row r="208" spans="14:14">
-      <c r="N208" s="66"/>
+      <c r="N208" s="60"/>
     </row>
     <row r="209" spans="14:14">
-      <c r="N209" s="66"/>
+      <c r="N209" s="60"/>
     </row>
     <row r="210" spans="14:14">
-      <c r="N210" s="66"/>
+      <c r="N210" s="60"/>
     </row>
     <row r="211" spans="14:14">
-      <c r="N211" s="66"/>
+      <c r="N211" s="60"/>
     </row>
     <row r="212" spans="14:14">
-      <c r="N212" s="66"/>
+      <c r="N212" s="60"/>
     </row>
     <row r="213" spans="14:14">
-      <c r="N213" s="66"/>
+      <c r="N213" s="60"/>
     </row>
     <row r="214" spans="14:14">
-      <c r="N214" s="66"/>
+      <c r="N214" s="60"/>
     </row>
     <row r="215" spans="14:14">
-      <c r="N215" s="66"/>
+      <c r="N215" s="60"/>
     </row>
     <row r="216" spans="14:14">
-      <c r="N216" s="66"/>
+      <c r="N216" s="60"/>
     </row>
     <row r="217" spans="14:14">
-      <c r="N217" s="66"/>
+      <c r="N217" s="60"/>
     </row>
     <row r="218" spans="14:14">
-      <c r="N218" s="66"/>
+      <c r="N218" s="60"/>
     </row>
     <row r="219" spans="14:14">
-      <c r="N219" s="66"/>
+      <c r="N219" s="60"/>
     </row>
     <row r="220" spans="14:14">
-      <c r="N220" s="66"/>
+      <c r="N220" s="60"/>
     </row>
     <row r="221" spans="14:14">
-      <c r="N221" s="66"/>
+      <c r="N221" s="60"/>
     </row>
     <row r="222" spans="14:14">
-      <c r="N222" s="66"/>
+      <c r="N222" s="60"/>
     </row>
     <row r="223" spans="14:14">
-      <c r="N223" s="66"/>
+      <c r="N223" s="60"/>
     </row>
     <row r="224" spans="14:14">
-      <c r="N224" s="66"/>
+      <c r="N224" s="60"/>
     </row>
     <row r="225" spans="14:14">
-      <c r="N225" s="66"/>
+      <c r="N225" s="60"/>
     </row>
     <row r="226" spans="14:14">
-      <c r="N226" s="66"/>
+      <c r="N226" s="60"/>
     </row>
     <row r="227" spans="14:14">
-      <c r="N227" s="66"/>
+      <c r="N227" s="60"/>
     </row>
     <row r="228" spans="14:14">
-      <c r="N228" s="66"/>
+      <c r="N228" s="60"/>
     </row>
     <row r="229" spans="14:14">
-      <c r="N229" s="66"/>
+      <c r="N229" s="60"/>
     </row>
     <row r="230" spans="14:14">
-      <c r="N230" s="66"/>
+      <c r="N230" s="60"/>
     </row>
     <row r="231" spans="14:14">
-      <c r="N231" s="66"/>
+      <c r="N231" s="60"/>
     </row>
     <row r="232" spans="14:14">
-      <c r="N232" s="66"/>
+      <c r="N232" s="60"/>
     </row>
     <row r="233" spans="14:14">
-      <c r="N233" s="66"/>
+      <c r="N233" s="60"/>
     </row>
     <row r="234" spans="14:14">
-      <c r="N234" s="66"/>
+      <c r="N234" s="60"/>
     </row>
     <row r="235" spans="14:14">
-      <c r="N235" s="66"/>
+      <c r="N235" s="60"/>
     </row>
     <row r="236" spans="14:14">
-      <c r="N236" s="66"/>
+      <c r="N236" s="60"/>
     </row>
     <row r="237" spans="14:14">
-      <c r="N237" s="66"/>
+      <c r="N237" s="60"/>
     </row>
     <row r="238" spans="14:14">
-      <c r="N238" s="66"/>
+      <c r="N238" s="60"/>
     </row>
     <row r="239" spans="14:14">
-      <c r="N239" s="66"/>
+      <c r="N239" s="60"/>
     </row>
     <row r="240" spans="14:14">
-      <c r="N240" s="66"/>
+      <c r="N240" s="60"/>
     </row>
     <row r="241" spans="14:14">
-      <c r="N241" s="66"/>
+      <c r="N241" s="60"/>
     </row>
     <row r="242" spans="14:14">
-      <c r="N242" s="66"/>
+      <c r="N242" s="60"/>
     </row>
     <row r="243" spans="14:14">
-      <c r="N243" s="66"/>
+      <c r="N243" s="60"/>
     </row>
     <row r="244" spans="14:14">
-      <c r="N244" s="66"/>
+      <c r="N244" s="60"/>
     </row>
     <row r="245" spans="14:14">
-      <c r="N245" s="66"/>
+      <c r="N245" s="60"/>
     </row>
     <row r="246" spans="14:14">
-      <c r="N246" s="66"/>
+      <c r="N246" s="60"/>
     </row>
     <row r="247" spans="14:14">
-      <c r="N247" s="66"/>
+      <c r="N247" s="60"/>
     </row>
     <row r="248" spans="14:14">
-      <c r="N248" s="66"/>
+      <c r="N248" s="60"/>
     </row>
     <row r="249" spans="14:14">
-      <c r="N249" s="66"/>
+      <c r="N249" s="60"/>
     </row>
     <row r="250" spans="14:14">
-      <c r="N250" s="66"/>
+      <c r="N250" s="60"/>
     </row>
     <row r="251" spans="14:14">
-      <c r="N251" s="66"/>
+      <c r="N251" s="60"/>
     </row>
     <row r="252" spans="14:14">
-      <c r="N252" s="66"/>
+      <c r="N252" s="60"/>
     </row>
     <row r="253" spans="14:14">
-      <c r="N253" s="66"/>
+      <c r="N253" s="60"/>
     </row>
     <row r="254" spans="14:14">
-      <c r="N254" s="66"/>
+      <c r="N254" s="60"/>
     </row>
     <row r="255" spans="14:14">
-      <c r="N255" s="66"/>
+      <c r="N255" s="60"/>
     </row>
     <row r="256" spans="14:14">
-      <c r="N256" s="66"/>
+      <c r="N256" s="60"/>
     </row>
     <row r="257" spans="14:14">
-      <c r="N257" s="66"/>
+      <c r="N257" s="60"/>
     </row>
     <row r="258" spans="14:14">
-      <c r="N258" s="66"/>
+      <c r="N258" s="60"/>
     </row>
     <row r="259" spans="14:14">
-      <c r="N259" s="66"/>
+      <c r="N259" s="60"/>
     </row>
     <row r="260" spans="14:14">
-      <c r="N260" s="66"/>
+      <c r="N260" s="60"/>
     </row>
     <row r="261" spans="14:14">
-      <c r="N261" s="66"/>
+      <c r="N261" s="60"/>
     </row>
     <row r="262" spans="14:14">
-      <c r="N262" s="66"/>
+      <c r="N262" s="60"/>
     </row>
     <row r="263" spans="14:14">
-      <c r="N263" s="66"/>
+      <c r="N263" s="60"/>
     </row>
     <row r="264" spans="14:14">
-      <c r="N264" s="66"/>
+      <c r="N264" s="60"/>
     </row>
     <row r="265" spans="14:14">
-      <c r="N265" s="66"/>
+      <c r="N265" s="60"/>
     </row>
     <row r="266" spans="14:14">
-      <c r="N266" s="66"/>
+      <c r="N266" s="60"/>
     </row>
     <row r="267" spans="14:14">
-      <c r="N267" s="66"/>
+      <c r="N267" s="60"/>
     </row>
     <row r="268" spans="14:14">
-      <c r="N268" s="66"/>
+      <c r="N268" s="60"/>
     </row>
     <row r="269" spans="14:14">
-      <c r="N269" s="66"/>
+      <c r="N269" s="60"/>
     </row>
     <row r="270" spans="14:14">
-      <c r="N270" s="66"/>
+      <c r="N270" s="60"/>
     </row>
     <row r="271" spans="14:14">
-      <c r="N271" s="66"/>
+      <c r="N271" s="60"/>
     </row>
     <row r="272" spans="14:14">
-      <c r="N272" s="66"/>
+      <c r="N272" s="60"/>
     </row>
     <row r="273" spans="14:14">
-      <c r="N273" s="66"/>
+      <c r="N273" s="60"/>
     </row>
     <row r="274" spans="14:14">
-      <c r="N274" s="66"/>
+      <c r="N274" s="60"/>
     </row>
     <row r="275" spans="14:14">
-      <c r="N275" s="66"/>
+      <c r="N275" s="60"/>
     </row>
     <row r="276" spans="14:14">
-      <c r="N276" s="66"/>
+      <c r="N276" s="60"/>
     </row>
     <row r="277" spans="14:14">
-      <c r="N277" s="66"/>
+      <c r="N277" s="60"/>
     </row>
     <row r="278" spans="14:14">
-      <c r="N278" s="66"/>
+      <c r="N278" s="60"/>
     </row>
     <row r="279" spans="14:14">
-      <c r="N279" s="66"/>
+      <c r="N279" s="60"/>
     </row>
     <row r="280" spans="14:14">
-      <c r="N280" s="66"/>
+      <c r="N280" s="60"/>
     </row>
     <row r="281" spans="14:14">
-      <c r="N281" s="66"/>
+      <c r="N281" s="60"/>
     </row>
     <row r="282" spans="14:14">
-      <c r="N282" s="66"/>
+      <c r="N282" s="60"/>
     </row>
     <row r="283" spans="14:14">
-      <c r="N283" s="66"/>
+      <c r="N283" s="60"/>
     </row>
     <row r="284" spans="14:14">
-      <c r="N284" s="66"/>
+      <c r="N284" s="60"/>
     </row>
     <row r="285" spans="14:14">
-      <c r="N285" s="66"/>
+      <c r="N285" s="60"/>
     </row>
     <row r="286" spans="14:14">
-      <c r="N286" s="66"/>
+      <c r="N286" s="60"/>
     </row>
     <row r="287" spans="14:14">
-      <c r="N287" s="66"/>
+      <c r="N287" s="60"/>
     </row>
     <row r="288" spans="14:14">
-      <c r="N288" s="66"/>
+      <c r="N288" s="60"/>
     </row>
     <row r="289" spans="14:14">
-      <c r="N289" s="66"/>
+      <c r="N289" s="60"/>
     </row>
     <row r="290" spans="14:14">
-      <c r="N290" s="66"/>
+      <c r="N290" s="60"/>
     </row>
     <row r="291" spans="14:14">
-      <c r="N291" s="66"/>
+      <c r="N291" s="60"/>
     </row>
     <row r="292" spans="14:14">
-      <c r="N292" s="66"/>
+      <c r="N292" s="60"/>
     </row>
     <row r="293" spans="14:14">
-      <c r="N293" s="66"/>
+      <c r="N293" s="60"/>
     </row>
     <row r="294" spans="14:14">
-      <c r="N294" s="66"/>
+      <c r="N294" s="60"/>
     </row>
     <row r="295" spans="14:14">
-      <c r="N295" s="66"/>
+      <c r="N295" s="60"/>
     </row>
     <row r="296" spans="14:14">
-      <c r="N296" s="66"/>
+      <c r="N296" s="60"/>
     </row>
     <row r="297" spans="14:14">
-      <c r="N297" s="66"/>
+      <c r="N297" s="60"/>
     </row>
     <row r="298" spans="14:14">
-      <c r="N298" s="66"/>
+      <c r="N298" s="60"/>
     </row>
     <row r="299" spans="14:14">
-      <c r="N299" s="66"/>
+      <c r="N299" s="60"/>
     </row>
     <row r="300" spans="14:14">
-      <c r="N300" s="66"/>
+      <c r="N300" s="60"/>
     </row>
     <row r="301" spans="14:14">
-      <c r="N301" s="66"/>
+      <c r="N301" s="60"/>
     </row>
     <row r="302" spans="14:14">
-      <c r="N302" s="66"/>
+      <c r="N302" s="60"/>
     </row>
     <row r="303" spans="14:14">
-      <c r="N303" s="66"/>
+      <c r="N303" s="60"/>
     </row>
     <row r="304" spans="14:14">
-      <c r="N304" s="66"/>
+      <c r="N304" s="60"/>
     </row>
     <row r="305" spans="14:14">
-      <c r="N305" s="66"/>
+      <c r="N305" s="60"/>
     </row>
     <row r="306" spans="14:14">
-      <c r="N306" s="66"/>
+      <c r="N306" s="60"/>
     </row>
     <row r="307" spans="14:14">
-      <c r="N307" s="66"/>
+      <c r="N307" s="60"/>
     </row>
     <row r="308" spans="14:14">
-      <c r="N308" s="66"/>
+      <c r="N308" s="60"/>
     </row>
     <row r="309" spans="14:14">
-      <c r="N309" s="66"/>
+      <c r="N309" s="60"/>
     </row>
     <row r="310" spans="14:14">
-      <c r="N310" s="66"/>
+      <c r="N310" s="60"/>
     </row>
     <row r="311" spans="14:14">
-      <c r="N311" s="66"/>
+      <c r="N311" s="60"/>
     </row>
     <row r="312" spans="14:14">
-      <c r="N312" s="66"/>
+      <c r="N312" s="60"/>
     </row>
     <row r="313" spans="14:14">
-      <c r="N313" s="66"/>
+      <c r="N313" s="60"/>
     </row>
     <row r="314" spans="14:14">
-      <c r="N314" s="66"/>
+      <c r="N314" s="60"/>
     </row>
     <row r="315" spans="14:14">
-      <c r="N315" s="66"/>
+      <c r="N315" s="60"/>
     </row>
     <row r="316" spans="14:14">
-      <c r="N316" s="66"/>
+      <c r="N316" s="60"/>
     </row>
     <row r="317" spans="14:14">
-      <c r="N317" s="66"/>
+      <c r="N317" s="60"/>
     </row>
     <row r="318" spans="14:14">
-      <c r="N318" s="66"/>
+      <c r="N318" s="60"/>
     </row>
     <row r="319" spans="14:14">
-      <c r="N319" s="66"/>
+      <c r="N319" s="60"/>
     </row>
     <row r="320" spans="14:14">
-      <c r="N320" s="66"/>
+      <c r="N320" s="60"/>
     </row>
     <row r="321" spans="14:14">
-      <c r="N321" s="66"/>
+      <c r="N321" s="60"/>
     </row>
     <row r="322" spans="14:14">
-      <c r="N322" s="66"/>
+      <c r="N322" s="60"/>
     </row>
     <row r="323" spans="14:14">
-      <c r="N323" s="66"/>
+      <c r="N323" s="60"/>
     </row>
     <row r="324" spans="14:14">
-      <c r="N324" s="66"/>
+      <c r="N324" s="60"/>
     </row>
     <row r="325" spans="14:14">
-      <c r="N325" s="66"/>
+      <c r="N325" s="60"/>
     </row>
     <row r="326" spans="14:14">
-      <c r="N326" s="66"/>
+      <c r="N326" s="60"/>
     </row>
     <row r="327" spans="14:14">
-      <c r="N327" s="66"/>
+      <c r="N327" s="60"/>
     </row>
     <row r="328" spans="14:14">
-      <c r="N328" s="66"/>
+      <c r="N328" s="60"/>
     </row>
     <row r="329" spans="14:14">
-      <c r="N329" s="66"/>
+      <c r="N329" s="60"/>
     </row>
     <row r="330" spans="14:14">
-      <c r="N330" s="66"/>
+      <c r="N330" s="60"/>
     </row>
     <row r="331" spans="14:14">
-      <c r="N331" s="66"/>
+      <c r="N331" s="60"/>
     </row>
     <row r="332" spans="14:14">
-      <c r="N332" s="66"/>
+      <c r="N332" s="60"/>
     </row>
     <row r="333" spans="14:14">
-      <c r="N333" s="66"/>
+      <c r="N333" s="60"/>
     </row>
     <row r="334" spans="14:14">
-      <c r="N334" s="66"/>
+      <c r="N334" s="60"/>
     </row>
     <row r="335" spans="14:14">
-      <c r="N335" s="66"/>
+      <c r="N335" s="60"/>
     </row>
     <row r="336" spans="14:14">
-      <c r="N336" s="66"/>
+      <c r="N336" s="60"/>
     </row>
     <row r="337" spans="14:14">
-      <c r="N337" s="66"/>
+      <c r="N337" s="60"/>
     </row>
     <row r="338" spans="14:14">
-      <c r="N338" s="66"/>
+      <c r="N338" s="60"/>
     </row>
     <row r="339" spans="14:14">
-      <c r="N339" s="66"/>
+      <c r="N339" s="60"/>
     </row>
     <row r="340" spans="14:14">
-      <c r="N340" s="66"/>
+      <c r="N340" s="60"/>
     </row>
     <row r="341" spans="14:14">
-      <c r="N341" s="66"/>
+      <c r="N341" s="60"/>
     </row>
     <row r="342" spans="14:14">
-      <c r="N342" s="66"/>
+      <c r="N342" s="60"/>
     </row>
     <row r="343" spans="14:14">
-      <c r="N343" s="66"/>
+      <c r="N343" s="60"/>
     </row>
     <row r="344" spans="14:14">
-      <c r="N344" s="66"/>
+      <c r="N344" s="60"/>
     </row>
     <row r="345" spans="14:14">
-      <c r="N345" s="66"/>
+      <c r="N345" s="60"/>
     </row>
     <row r="346" spans="14:14">
-      <c r="N346" s="66"/>
+      <c r="N346" s="60"/>
     </row>
     <row r="347" spans="14:14">
-      <c r="N347" s="66"/>
+      <c r="N347" s="60"/>
     </row>
     <row r="348" spans="14:14">
-      <c r="N348" s="66"/>
+      <c r="N348" s="60"/>
     </row>
     <row r="349" spans="14:14">
-      <c r="N349" s="66"/>
+      <c r="N349" s="60"/>
     </row>
     <row r="350" spans="14:14">
-      <c r="N350" s="66"/>
+      <c r="N350" s="60"/>
     </row>
     <row r="351" spans="14:14">
-      <c r="N351" s="66"/>
+      <c r="N351" s="60"/>
     </row>
     <row r="352" spans="14:14">
-      <c r="N352" s="66"/>
+      <c r="N352" s="60"/>
     </row>
     <row r="353" spans="14:14">
-      <c r="N353" s="66"/>
+      <c r="N353" s="60"/>
     </row>
     <row r="354" spans="14:14">
-      <c r="N354" s="66"/>
+      <c r="N354" s="60"/>
     </row>
     <row r="355" spans="14:14">
-      <c r="N355" s="66"/>
+      <c r="N355" s="60"/>
     </row>
     <row r="356" spans="14:14">
-      <c r="N356" s="66"/>
+      <c r="N356" s="60"/>
     </row>
     <row r="357" spans="14:14">
-      <c r="N357" s="66"/>
+      <c r="N357" s="60"/>
     </row>
     <row r="358" spans="14:14">
-      <c r="N358" s="66"/>
+      <c r="N358" s="60"/>
     </row>
     <row r="359" spans="14:14">
-      <c r="N359" s="66"/>
+      <c r="N359" s="60"/>
     </row>
     <row r="360" spans="14:14">
-      <c r="N360" s="66"/>
+      <c r="N360" s="60"/>
     </row>
     <row r="361" spans="14:14">
-      <c r="N361" s="66"/>
+      <c r="N361" s="60"/>
     </row>
     <row r="362" spans="14:14">
-      <c r="N362" s="66"/>
+      <c r="N362" s="60"/>
     </row>
     <row r="363" spans="14:14">
-      <c r="N363" s="66"/>
+      <c r="N363" s="60"/>
     </row>
     <row r="364" spans="14:14">
-      <c r="N364" s="66"/>
+      <c r="N364" s="60"/>
     </row>
     <row r="365" spans="14:14">
-      <c r="N365" s="66"/>
+      <c r="N365" s="60"/>
     </row>
     <row r="366" spans="14:14">
-      <c r="N366" s="66"/>
+      <c r="N366" s="60"/>
     </row>
     <row r="367" spans="14:14">
-      <c r="N367" s="66"/>
+      <c r="N367" s="60"/>
     </row>
     <row r="368" spans="14:14">
-      <c r="N368" s="66"/>
+      <c r="N368" s="60"/>
     </row>
     <row r="369" spans="14:14">
-      <c r="N369" s="66"/>
+      <c r="N369" s="60"/>
     </row>
     <row r="370" spans="14:14">
-      <c r="N370" s="66"/>
+      <c r="N370" s="60"/>
     </row>
     <row r="371" spans="14:14">
-      <c r="N371" s="66"/>
+      <c r="N371" s="60"/>
     </row>
     <row r="372" spans="14:14">
-      <c r="N372" s="66"/>
+      <c r="N372" s="60"/>
     </row>
     <row r="373" spans="14:14">
-      <c r="N373" s="66"/>
+      <c r="N373" s="60"/>
     </row>
     <row r="374" spans="14:14">
-      <c r="N374" s="66"/>
+      <c r="N374" s="60"/>
     </row>
     <row r="375" spans="14:14">
-      <c r="N375" s="66"/>
+      <c r="N375" s="60"/>
     </row>
     <row r="376" spans="14:14">
-      <c r="N376" s="66"/>
+      <c r="N376" s="60"/>
     </row>
     <row r="377" spans="14:14">
-      <c r="N377" s="66"/>
+      <c r="N377" s="60"/>
     </row>
     <row r="378" spans="14:14">
-      <c r="N378" s="66"/>
+      <c r="N378" s="60"/>
     </row>
     <row r="379" spans="14:14">
-      <c r="N379" s="66"/>
+      <c r="N379" s="60"/>
     </row>
     <row r="380" spans="14:14">
-      <c r="N380" s="66"/>
+      <c r="N380" s="60"/>
     </row>
     <row r="381" spans="14:14">
-      <c r="N381" s="66"/>
+      <c r="N381" s="60"/>
     </row>
     <row r="382" spans="14:14">
-      <c r="N382" s="66"/>
+      <c r="N382" s="60"/>
     </row>
     <row r="383" spans="14:14">
-      <c r="N383" s="66"/>
+      <c r="N383" s="60"/>
     </row>
     <row r="384" spans="14:14">
-      <c r="N384" s="66"/>
+      <c r="N384" s="60"/>
     </row>
     <row r="385" spans="14:14">
-      <c r="N385" s="66"/>
+      <c r="N385" s="60"/>
     </row>
     <row r="386" spans="14:14">
-      <c r="N386" s="66"/>
+      <c r="N386" s="60"/>
     </row>
     <row r="387" spans="14:14">
-      <c r="N387" s="66"/>
+      <c r="N387" s="60"/>
     </row>
     <row r="388" spans="14:14">
-      <c r="N388" s="66"/>
+      <c r="N388" s="60"/>
     </row>
     <row r="389" spans="14:14">
-      <c r="N389" s="66"/>
+      <c r="N389" s="60"/>
     </row>
     <row r="390" spans="14:14">
-      <c r="N390" s="66"/>
+      <c r="N390" s="60"/>
     </row>
     <row r="391" spans="14:14">
-      <c r="N391" s="66"/>
+      <c r="N391" s="60"/>
     </row>
     <row r="392" spans="14:14">
-      <c r="N392" s="66"/>
+      <c r="N392" s="60"/>
     </row>
     <row r="393" spans="14:14">
-      <c r="N393" s="66"/>
+      <c r="N393" s="60"/>
     </row>
     <row r="394" spans="14:14">
-      <c r="N394" s="66"/>
+      <c r="N394" s="60"/>
     </row>
     <row r="395" spans="14:14">
-      <c r="N395" s="66"/>
+      <c r="N395" s="60"/>
     </row>
     <row r="396" spans="14:14">
-      <c r="N396" s="66"/>
+      <c r="N396" s="60"/>
     </row>
     <row r="397" spans="14:14">
-      <c r="N397" s="66"/>
+      <c r="N397" s="60"/>
     </row>
     <row r="398" spans="14:14">
-      <c r="N398" s="66"/>
+      <c r="N398" s="60"/>
     </row>
     <row r="399" spans="14:14">
-      <c r="N399" s="66"/>
+      <c r="N399" s="60"/>
     </row>
     <row r="400" spans="14:14">
-      <c r="N400" s="66"/>
+      <c r="N400" s="60"/>
     </row>
     <row r="401" spans="14:14">
-      <c r="N401" s="66"/>
+      <c r="N401" s="60"/>
     </row>
     <row r="402" spans="14:14">
-      <c r="N402" s="66"/>
+      <c r="N402" s="60"/>
     </row>
     <row r="403" spans="14:14">
-      <c r="N403" s="66"/>
+      <c r="N403" s="60"/>
     </row>
     <row r="404" spans="14:14">
-      <c r="N404" s="66"/>
+      <c r="N404" s="60"/>
     </row>
     <row r="405" spans="14:14">
-      <c r="N405" s="66"/>
+      <c r="N405" s="60"/>
     </row>
     <row r="406" spans="14:14">
-      <c r="N406" s="66"/>
+      <c r="N406" s="60"/>
     </row>
     <row r="407" spans="14:14">
-      <c r="N407" s="66"/>
+      <c r="N407" s="60"/>
     </row>
     <row r="408" spans="14:14">
-      <c r="N408" s="66"/>
+      <c r="N408" s="60"/>
     </row>
     <row r="409" spans="14:14">
-      <c r="N409" s="66"/>
+      <c r="N409" s="60"/>
     </row>
     <row r="410" spans="14:14">
-      <c r="N410" s="66"/>
+      <c r="N410" s="60"/>
     </row>
     <row r="411" spans="14:14">
-      <c r="N411" s="66"/>
+      <c r="N411" s="60"/>
     </row>
     <row r="412" spans="14:14">
-      <c r="N412" s="66"/>
+      <c r="N412" s="60"/>
     </row>
     <row r="413" spans="14:14">
-      <c r="N413" s="66"/>
+      <c r="N413" s="60"/>
     </row>
     <row r="414" spans="14:14">
-      <c r="N414" s="66"/>
+      <c r="N414" s="60"/>
     </row>
     <row r="415" spans="14:14">
-      <c r="N415" s="66"/>
+      <c r="N415" s="60"/>
     </row>
     <row r="416" spans="14:14">
-      <c r="N416" s="66"/>
+      <c r="N416" s="60"/>
     </row>
     <row r="417" spans="14:14">
-      <c r="N417" s="66"/>
+      <c r="N417" s="60"/>
     </row>
     <row r="418" spans="14:14">
-      <c r="N418" s="66"/>
+      <c r="N418" s="60"/>
     </row>
     <row r="419" spans="14:14">
-      <c r="N419" s="66"/>
+      <c r="N419" s="60"/>
     </row>
     <row r="420" spans="14:14">
-      <c r="N420" s="66"/>
+      <c r="N420" s="60"/>
     </row>
     <row r="421" spans="14:14">
-      <c r="N421" s="66"/>
+      <c r="N421" s="60"/>
     </row>
     <row r="422" spans="14:14">
-      <c r="N422" s="66"/>
+      <c r="N422" s="60"/>
     </row>
     <row r="423" spans="14:14">
-      <c r="N423" s="66"/>
+      <c r="N423" s="60"/>
     </row>
     <row r="424" spans="14:14">
-      <c r="N424" s="66"/>
+      <c r="N424" s="60"/>
     </row>
     <row r="425" spans="14:14">
-      <c r="N425" s="66"/>
+      <c r="N425" s="60"/>
     </row>
     <row r="426" spans="14:14">
-      <c r="N426" s="66"/>
+      <c r="N426" s="60"/>
     </row>
     <row r="427" spans="14:14">
-      <c r="N427" s="66"/>
+      <c r="N427" s="60"/>
     </row>
     <row r="428" spans="14:14">
-      <c r="N428" s="66"/>
+      <c r="N428" s="60"/>
     </row>
     <row r="429" spans="14:14">
-      <c r="N429" s="66"/>
+      <c r="N429" s="60"/>
     </row>
     <row r="430" spans="14:14">
-      <c r="N430" s="66"/>
+      <c r="N430" s="60"/>
     </row>
     <row r="431" spans="14:14">
-      <c r="N431" s="66"/>
+      <c r="N431" s="60"/>
     </row>
     <row r="432" spans="14:14">
-      <c r="N432" s="66"/>
+      <c r="N432" s="60"/>
     </row>
     <row r="433" spans="14:14">
-      <c r="N433" s="66"/>
+      <c r="N433" s="60"/>
     </row>
     <row r="434" spans="14:14">
-      <c r="N434" s="66"/>
+      <c r="N434" s="60"/>
     </row>
     <row r="435" spans="14:14">
-      <c r="N435" s="66"/>
+      <c r="N435" s="60"/>
     </row>
     <row r="436" spans="14:14">
-      <c r="N436" s="66"/>
+      <c r="N436" s="60"/>
     </row>
     <row r="437" spans="14:14">
-      <c r="N437" s="66"/>
+      <c r="N437" s="60"/>
     </row>
     <row r="438" spans="14:14">
-      <c r="N438" s="66"/>
+      <c r="N438" s="60"/>
     </row>
     <row r="439" spans="14:14">
-      <c r="N439" s="66"/>
+      <c r="N439" s="60"/>
     </row>
     <row r="440" spans="14:14">
-      <c r="N440" s="66"/>
+      <c r="N440" s="60"/>
     </row>
     <row r="441" spans="14:14">
-      <c r="N441" s="66"/>
+      <c r="N441" s="60"/>
     </row>
     <row r="442" spans="14:14">
-      <c r="N442" s="66"/>
+      <c r="N442" s="60"/>
     </row>
     <row r="443" spans="14:14">
-      <c r="N443" s="66"/>
+      <c r="N443" s="60"/>
     </row>
     <row r="444" spans="14:14">
-      <c r="N444" s="66"/>
+      <c r="N444" s="60"/>
     </row>
     <row r="445" spans="14:14">
-      <c r="N445" s="66"/>
+      <c r="N445" s="60"/>
     </row>
     <row r="446" spans="14:14">
-      <c r="N446" s="66"/>
+      <c r="N446" s="60"/>
     </row>
     <row r="447" spans="14:14">
-      <c r="N447" s="66"/>
+      <c r="N447" s="60"/>
     </row>
     <row r="448" spans="14:14">
-      <c r="N448" s="66"/>
+      <c r="N448" s="60"/>
     </row>
     <row r="449" spans="14:14">
-      <c r="N449" s="66"/>
+      <c r="N449" s="60"/>
     </row>
     <row r="450" spans="14:14">
-      <c r="N450" s="66"/>
+      <c r="N450" s="60"/>
     </row>
     <row r="451" spans="14:14">
-      <c r="N451" s="66"/>
+      <c r="N451" s="60"/>
     </row>
     <row r="452" spans="14:14">
-      <c r="N452" s="66"/>
+      <c r="N452" s="60"/>
     </row>
     <row r="453" spans="14:14">
-      <c r="N453" s="66"/>
+      <c r="N453" s="60"/>
     </row>
     <row r="454" spans="14:14">
-      <c r="N454" s="66"/>
+      <c r="N454" s="60"/>
     </row>
     <row r="455" spans="14:14">
-      <c r="N455" s="66"/>
+      <c r="N455" s="60"/>
     </row>
     <row r="456" spans="14:14">
-      <c r="N456" s="66"/>
+      <c r="N456" s="60"/>
     </row>
     <row r="457" spans="14:14">
-      <c r="N457" s="66"/>
+      <c r="N457" s="60"/>
     </row>
     <row r="458" spans="14:14">
-      <c r="N458" s="66"/>
+      <c r="N458" s="60"/>
     </row>
     <row r="459" spans="14:14">
-      <c r="N459" s="66"/>
+      <c r="N459" s="60"/>
     </row>
     <row r="460" spans="14:14">
-      <c r="N460" s="66"/>
+      <c r="N460" s="60"/>
     </row>
     <row r="461" spans="14:14">
-      <c r="N461" s="66"/>
+      <c r="N461" s="60"/>
     </row>
     <row r="462" spans="14:14">
-      <c r="N462" s="66"/>
+      <c r="N462" s="60"/>
     </row>
     <row r="463" spans="14:14">
-      <c r="N463" s="66"/>
+      <c r="N463" s="60"/>
     </row>
     <row r="464" spans="14:14">
-      <c r="N464" s="66"/>
+      <c r="N464" s="60"/>
     </row>
     <row r="465" spans="14:14">
-      <c r="N465" s="66"/>
+      <c r="N465" s="60"/>
     </row>
     <row r="466" spans="14:14">
-      <c r="N466" s="66"/>
+      <c r="N466" s="60"/>
     </row>
     <row r="467" spans="14:14">
-      <c r="N467" s="66"/>
+      <c r="N467" s="60"/>
     </row>
     <row r="468" spans="14:14">
-      <c r="N468" s="66"/>
+      <c r="N468" s="60"/>
     </row>
     <row r="469" spans="14:14">
-      <c r="N469" s="66"/>
+      <c r="N469" s="60"/>
     </row>
     <row r="470" spans="14:14">
-      <c r="N470" s="66"/>
+      <c r="N470" s="60"/>
     </row>
     <row r="471" spans="14:14">
-      <c r="N471" s="66"/>
+      <c r="N471" s="60"/>
     </row>
     <row r="472" spans="14:14">
-      <c r="N472" s="66"/>
+      <c r="N472" s="60"/>
     </row>
     <row r="473" spans="14:14">
-      <c r="N473" s="66"/>
+      <c r="N473" s="60"/>
     </row>
     <row r="474" spans="14:14">
-      <c r="N474" s="66"/>
+      <c r="N474" s="60"/>
     </row>
     <row r="475" spans="14:14">
-      <c r="N475" s="66"/>
+      <c r="N475" s="60"/>
     </row>
     <row r="476" spans="14:14">
-      <c r="N476" s="66"/>
+      <c r="N476" s="60"/>
     </row>
     <row r="477" spans="14:14">
-      <c r="N477" s="66"/>
+      <c r="N477" s="60"/>
     </row>
     <row r="478" spans="14:14">
-      <c r="N478" s="66"/>
+      <c r="N478" s="60"/>
     </row>
     <row r="479" spans="14:14">
-      <c r="N479" s="66"/>
+      <c r="N479" s="60"/>
     </row>
     <row r="480" spans="14:14">
-      <c r="N480" s="66"/>
+      <c r="N480" s="60"/>
     </row>
     <row r="481" spans="14:14">
-      <c r="N481" s="66"/>
+      <c r="N481" s="60"/>
     </row>
     <row r="482" spans="14:14">
-      <c r="N482" s="66"/>
+      <c r="N482" s="60"/>
     </row>
     <row r="483" spans="14:14">
-      <c r="N483" s="66"/>
+      <c r="N483" s="60"/>
     </row>
     <row r="484" spans="14:14">
-      <c r="N484" s="66"/>
+      <c r="N484" s="60"/>
     </row>
     <row r="485" spans="14:14">
-      <c r="N485" s="66"/>
+      <c r="N485" s="60"/>
     </row>
     <row r="486" spans="14:14">
-      <c r="N486" s="66"/>
+      <c r="N486" s="60"/>
     </row>
     <row r="487" spans="14:14">
-      <c r="N487" s="66"/>
+      <c r="N487" s="60"/>
     </row>
     <row r="488" spans="14:14">
-      <c r="N488" s="66"/>
+      <c r="N488" s="60"/>
     </row>
     <row r="489" spans="14:14">
-      <c r="N489" s="66"/>
+      <c r="N489" s="60"/>
     </row>
     <row r="490" spans="14:14">
-      <c r="N490" s="66"/>
+      <c r="N490" s="60"/>
     </row>
     <row r="491" spans="14:14">
-      <c r="N491" s="66"/>
+      <c r="N491" s="60"/>
     </row>
     <row r="492" spans="14:14">
-      <c r="N492" s="66"/>
+      <c r="N492" s="60"/>
     </row>
     <row r="493" spans="14:14">
-      <c r="N493" s="66"/>
+      <c r="N493" s="60"/>
     </row>
     <row r="494" spans="14:14">
-      <c r="N494" s="66"/>
+      <c r="N494" s="60"/>
     </row>
     <row r="495" spans="14:14">
-      <c r="N495" s="66"/>
+      <c r="N495" s="60"/>
     </row>
     <row r="496" spans="14:14">
-      <c r="N496" s="66"/>
+      <c r="N496" s="60"/>
     </row>
     <row r="497" spans="14:14">
-      <c r="N497" s="66"/>
+      <c r="N497" s="60"/>
     </row>
     <row r="498" spans="14:14">
-      <c r="N498" s="66"/>
+      <c r="N498" s="60"/>
     </row>
     <row r="499" spans="14:14">
-      <c r="N499" s="66"/>
+      <c r="N499" s="60"/>
     </row>
     <row r="500" spans="14:14">
-      <c r="N500" s="66"/>
+      <c r="N500" s="60"/>
     </row>
     <row r="501" spans="14:14">
-      <c r="N501" s="66"/>
+      <c r="N501" s="60"/>
     </row>
     <row r="502" spans="14:14">
-      <c r="N502" s="66"/>
+      <c r="N502" s="60"/>
     </row>
     <row r="503" spans="14:14">
-      <c r="N503" s="66"/>
+      <c r="N503" s="60"/>
     </row>
     <row r="504" spans="14:14">
-      <c r="N504" s="66"/>
+      <c r="N504" s="60"/>
     </row>
     <row r="505" spans="14:14">
-      <c r="N505" s="66"/>
+      <c r="N505" s="60"/>
     </row>
     <row r="506" spans="14:14">
-      <c r="N506" s="66"/>
+      <c r="N506" s="60"/>
     </row>
     <row r="507" spans="14:14">
-      <c r="N507" s="66"/>
+      <c r="N507" s="60"/>
     </row>
     <row r="508" spans="14:14">
-      <c r="N508" s="66"/>
+      <c r="N508" s="60"/>
     </row>
     <row r="509" spans="14:14">
-      <c r="N509" s="66"/>
+      <c r="N509" s="60"/>
     </row>
     <row r="510" spans="14:14">
-      <c r="N510" s="66"/>
+      <c r="N510" s="60"/>
     </row>
     <row r="511" spans="14:14">
-      <c r="N511" s="66"/>
+      <c r="N511" s="60"/>
     </row>
     <row r="512" spans="14:14">
-      <c r="N512" s="66"/>
+      <c r="N512" s="60"/>
     </row>
     <row r="513" spans="14:14">
-      <c r="N513" s="66"/>
+      <c r="N513" s="60"/>
     </row>
     <row r="514" spans="14:14">
-      <c r="N514" s="66"/>
+      <c r="N514" s="60"/>
     </row>
     <row r="515" spans="14:14">
-      <c r="N515" s="66"/>
+      <c r="N515" s="60"/>
     </row>
     <row r="516" spans="14:14">
-      <c r="N516" s="66"/>
+      <c r="N516" s="60"/>
     </row>
     <row r="517" spans="14:14">
-      <c r="N517" s="66"/>
+      <c r="N517" s="60"/>
     </row>
     <row r="518" spans="14:14">
-      <c r="N518" s="66"/>
+      <c r="N518" s="60"/>
     </row>
     <row r="519" spans="14:14">
-      <c r="N519" s="66"/>
+      <c r="N519" s="60"/>
     </row>
     <row r="520" spans="14:14">
-      <c r="N520" s="66"/>
+      <c r="N520" s="60"/>
     </row>
     <row r="521" spans="14:14">
-      <c r="N521" s="66"/>
+      <c r="N521" s="60"/>
     </row>
     <row r="522" spans="14:14">
-      <c r="N522" s="66"/>
+      <c r="N522" s="60"/>
     </row>
     <row r="523" spans="14:14">
-      <c r="N523" s="66"/>
+      <c r="N523" s="60"/>
     </row>
     <row r="524" spans="14:14">
-      <c r="N524" s="66"/>
+      <c r="N524" s="60"/>
     </row>
     <row r="525" spans="14:14">
-      <c r="N525" s="66"/>
+      <c r="N525" s="60"/>
     </row>
     <row r="526" spans="14:14">
-      <c r="N526" s="66"/>
+      <c r="N526" s="60"/>
     </row>
     <row r="527" spans="14:14">
-      <c r="N527" s="66"/>
+      <c r="N527" s="60"/>
     </row>
     <row r="528" spans="14:14">
-      <c r="N528" s="66"/>
+      <c r="N528" s="60"/>
     </row>
     <row r="529" spans="14:14">
-      <c r="N529" s="66"/>
+      <c r="N529" s="60"/>
     </row>
     <row r="530" spans="14:14">
-      <c r="N530" s="66"/>
+      <c r="N530" s="60"/>
     </row>
     <row r="531" spans="14:14">
-      <c r="N531" s="66"/>
+      <c r="N531" s="60"/>
     </row>
     <row r="532" spans="14:14">
-      <c r="N532" s="66"/>
+      <c r="N532" s="60"/>
     </row>
     <row r="533" spans="14:14">
-      <c r="N533" s="66"/>
+      <c r="N533" s="60"/>
     </row>
     <row r="534" spans="14:14">
-      <c r="N534" s="66"/>
+      <c r="N534" s="60"/>
     </row>
     <row r="535" spans="14:14">
-      <c r="N535" s="66"/>
+      <c r="N535" s="60"/>
     </row>
     <row r="536" spans="14:14">
-      <c r="N536" s="66"/>
+      <c r="N536" s="60"/>
     </row>
     <row r="537" spans="14:14">
-      <c r="N537" s="66"/>
+      <c r="N537" s="60"/>
     </row>
     <row r="538" spans="14:14">
-      <c r="N538" s="66"/>
+      <c r="N538" s="60"/>
     </row>
     <row r="539" spans="14:14">
-      <c r="N539" s="66"/>
+      <c r="N539" s="60"/>
     </row>
     <row r="540" spans="14:14">
-      <c r="N540" s="66"/>
+      <c r="N540" s="60"/>
     </row>
     <row r="541" spans="14:14">
-      <c r="N541" s="66"/>
+      <c r="N541" s="60"/>
     </row>
     <row r="542" spans="14:14">
-      <c r="N542" s="66"/>
+      <c r="N542" s="60"/>
     </row>
     <row r="543" spans="14:14">
-      <c r="N543" s="66"/>
+      <c r="N543" s="60"/>
     </row>
     <row r="544" spans="14:14">
-      <c r="N544" s="66"/>
+      <c r="N544" s="60"/>
     </row>
     <row r="545" spans="14:14">
-      <c r="N545" s="66"/>
+      <c r="N545" s="60"/>
     </row>
     <row r="546" spans="14:14">
-      <c r="N546" s="66"/>
+      <c r="N546" s="60"/>
     </row>
     <row r="547" spans="14:14">
-      <c r="N547" s="66"/>
+      <c r="N547" s="60"/>
     </row>
     <row r="548" spans="14:14">
-      <c r="N548" s="66"/>
+      <c r="N548" s="60"/>
     </row>
     <row r="549" spans="14:14">
-      <c r="N549" s="66"/>
+      <c r="N549" s="60"/>
     </row>
     <row r="550" spans="14:14">
-      <c r="N550" s="66"/>
+      <c r="N550" s="60"/>
     </row>
     <row r="551" spans="14:14">
-      <c r="N551" s="66"/>
+      <c r="N551" s="60"/>
     </row>
     <row r="552" spans="14:14">
-      <c r="N552" s="66"/>
+      <c r="N552" s="60"/>
     </row>
     <row r="553" spans="14:14">
-      <c r="N553" s="66"/>
+      <c r="N553" s="60"/>
     </row>
     <row r="554" spans="14:14">
-      <c r="N554" s="66"/>
+      <c r="N554" s="60"/>
     </row>
     <row r="555" spans="14:14">
-      <c r="N555" s="66"/>
+      <c r="N555" s="60"/>
     </row>
     <row r="556" spans="14:14">
-      <c r="N556" s="66"/>
+      <c r="N556" s="60"/>
     </row>
     <row r="557" spans="14:14">
-      <c r="N557" s="66"/>
+      <c r="N557" s="60"/>
     </row>
     <row r="558" spans="14:14">
-      <c r="N558" s="66"/>
+      <c r="N558" s="60"/>
     </row>
     <row r="559" spans="14:14">
-      <c r="N559" s="66"/>
+      <c r="N559" s="60"/>
     </row>
     <row r="560" spans="14:14">
-      <c r="N560" s="66"/>
+      <c r="N560" s="60"/>
     </row>
     <row r="561" spans="14:14">
-      <c r="N561" s="66"/>
+      <c r="N561" s="60"/>
     </row>
     <row r="562" spans="14:14">
-      <c r="N562" s="66"/>
+      <c r="N562" s="60"/>
     </row>
     <row r="563" spans="14:14">
-      <c r="N563" s="66"/>
+      <c r="N563" s="60"/>
     </row>
     <row r="564" spans="14:14">
-      <c r="N564" s="66"/>
+      <c r="N564" s="60"/>
     </row>
     <row r="565" spans="14:14">
-      <c r="N565" s="66"/>
+      <c r="N565" s="60"/>
     </row>
     <row r="566" spans="14:14">
-      <c r="N566" s="66"/>
+      <c r="N566" s="60"/>
     </row>
     <row r="567" spans="14:14">
-      <c r="N567" s="66"/>
+      <c r="N567" s="60"/>
     </row>
     <row r="568" spans="14:14">
-      <c r="N568" s="66"/>
+      <c r="N568" s="60"/>
     </row>
     <row r="569" spans="14:14">
-      <c r="N569" s="66"/>
+      <c r="N569" s="60"/>
     </row>
     <row r="570" spans="14:14">
-      <c r="N570" s="66"/>
+      <c r="N570" s="60"/>
     </row>
     <row r="571" spans="14:14">
-      <c r="N571" s="66"/>
+      <c r="N571" s="60"/>
     </row>
     <row r="572" spans="14:14">
-      <c r="N572" s="66"/>
+      <c r="N572" s="60"/>
     </row>
     <row r="573" spans="14:14">
-      <c r="N573" s="66"/>
+      <c r="N573" s="60"/>
     </row>
     <row r="574" spans="14:14">
-      <c r="N574" s="66"/>
+      <c r="N574" s="60"/>
     </row>
     <row r="575" spans="14:14">
-      <c r="N575" s="66"/>
+      <c r="N575" s="60"/>
     </row>
     <row r="576" spans="14:14">
-      <c r="N576" s="66"/>
+      <c r="N576" s="60"/>
     </row>
     <row r="577" spans="14:14">
-      <c r="N577" s="66"/>
+      <c r="N577" s="60"/>
     </row>
     <row r="578" spans="14:14">
-      <c r="N578" s="66"/>
+      <c r="N578" s="60"/>
     </row>
     <row r="579" spans="14:14">
-      <c r="N579" s="66"/>
+      <c r="N579" s="60"/>
     </row>
     <row r="580" spans="14:14">
-      <c r="N580" s="66"/>
+      <c r="N580" s="60"/>
     </row>
     <row r="581" spans="14:14">
-      <c r="N581" s="66"/>
+      <c r="N581" s="60"/>
     </row>
     <row r="582" spans="14:14">
-      <c r="N582" s="66"/>
+      <c r="N582" s="60"/>
     </row>
     <row r="583" spans="14:14">
-      <c r="N583" s="66"/>
+      <c r="N583" s="60"/>
     </row>
     <row r="584" spans="14:14">
-      <c r="N584" s="66"/>
+      <c r="N584" s="60"/>
     </row>
     <row r="585" spans="14:14">
-      <c r="N585" s="66"/>
+      <c r="N585" s="60"/>
     </row>
     <row r="586" spans="14:14">
-      <c r="N586" s="66"/>
+      <c r="N586" s="60"/>
     </row>
     <row r="587" spans="14:14">
-      <c r="N587" s="66"/>
+      <c r="N587" s="60"/>
     </row>
     <row r="588" spans="14:14">
-      <c r="N588" s="66"/>
+      <c r="N588" s="60"/>
     </row>
     <row r="589" spans="14:14">
-      <c r="N589" s="66"/>
+      <c r="N589" s="60"/>
     </row>
     <row r="590" spans="14:14">
-      <c r="N590" s="66"/>
+      <c r="N590" s="60"/>
     </row>
     <row r="591" spans="14:14">
-      <c r="N591" s="66"/>
+      <c r="N591" s="60"/>
     </row>
     <row r="592" spans="14:14">
-      <c r="N592" s="66"/>
+      <c r="N592" s="60"/>
     </row>
     <row r="593" spans="14:14">
-      <c r="N593" s="66"/>
+      <c r="N593" s="60"/>
     </row>
     <row r="594" spans="14:14">
-      <c r="N594" s="66"/>
+      <c r="N594" s="60"/>
     </row>
     <row r="595" spans="14:14">
-      <c r="N595" s="66"/>
+      <c r="N595" s="60"/>
     </row>
     <row r="596" spans="14:14">
-      <c r="N596" s="66"/>
+      <c r="N596" s="60"/>
     </row>
     <row r="597" spans="14:14">
-      <c r="N597" s="66"/>
+      <c r="N597" s="60"/>
     </row>
     <row r="598" spans="14:14">
-      <c r="N598" s="66"/>
+      <c r="N598" s="60"/>
     </row>
     <row r="599" spans="14:14">
-      <c r="N599" s="66"/>
+      <c r="N599" s="60"/>
     </row>
     <row r="600" spans="14:14">
-      <c r="N600" s="66"/>
+      <c r="N600" s="60"/>
     </row>
     <row r="601" spans="14:14">
-      <c r="N601" s="66"/>
+      <c r="N601" s="60"/>
     </row>
     <row r="602" spans="14:14">
-      <c r="N602" s="66"/>
+      <c r="N602" s="60"/>
     </row>
     <row r="603" spans="14:14">
-      <c r="N603" s="66"/>
+      <c r="N603" s="60"/>
     </row>
     <row r="604" spans="14:14">
-      <c r="N604" s="66"/>
+      <c r="N604" s="60"/>
     </row>
     <row r="605" spans="14:14">
-      <c r="N605" s="66"/>
+      <c r="N605" s="60"/>
     </row>
     <row r="606" spans="14:14">
-      <c r="N606" s="66"/>
+      <c r="N606" s="60"/>
     </row>
     <row r="607" spans="14:14">
-      <c r="N607" s="66"/>
+      <c r="N607" s="60"/>
     </row>
     <row r="608" spans="14:14">
-      <c r="N608" s="66"/>
+      <c r="N608" s="60"/>
     </row>
     <row r="609" spans="14:14">
-      <c r="N609" s="66"/>
+      <c r="N609" s="60"/>
     </row>
     <row r="610" spans="14:14">
-      <c r="N610" s="66"/>
+      <c r="N610" s="60"/>
     </row>
     <row r="611" spans="14:14">
-      <c r="N611" s="66"/>
+      <c r="N611" s="60"/>
     </row>
     <row r="612" spans="14:14">
-      <c r="N612" s="66"/>
+      <c r="N612" s="60"/>
     </row>
     <row r="613" spans="14:14">
-      <c r="N613" s="66"/>
+      <c r="N613" s="60"/>
     </row>
     <row r="614" spans="14:14">
-      <c r="N614" s="66"/>
+      <c r="N614" s="60"/>
     </row>
     <row r="615" spans="14:14">
-      <c r="N615" s="66"/>
+      <c r="N615" s="60"/>
     </row>
     <row r="616" spans="14:14">
-      <c r="N616" s="66"/>
+      <c r="N616" s="60"/>
     </row>
     <row r="617" spans="14:14">
-      <c r="N617" s="66"/>
+      <c r="N617" s="60"/>
     </row>
     <row r="618" spans="14:14">
-      <c r="N618" s="66"/>
+      <c r="N618" s="60"/>
     </row>
     <row r="619" spans="14:14">
-      <c r="N619" s="66"/>
+      <c r="N619" s="60"/>
     </row>
     <row r="620" spans="14:14">
-      <c r="N620" s="66"/>
+      <c r="N620" s="60"/>
     </row>
     <row r="621" spans="14:14">
-      <c r="N621" s="66"/>
+      <c r="N621" s="60"/>
     </row>
     <row r="622" spans="14:14">
-      <c r="N622" s="66"/>
+      <c r="N622" s="60"/>
     </row>
     <row r="623" spans="14:14">
-      <c r="N623" s="66"/>
+      <c r="N623" s="60"/>
     </row>
     <row r="624" spans="14:14">
-      <c r="N624" s="66"/>
+      <c r="N624" s="60"/>
     </row>
     <row r="625" spans="14:14">
-      <c r="N625" s="66"/>
+      <c r="N625" s="60"/>
     </row>
     <row r="626" spans="14:14">
-      <c r="N626" s="66"/>
+      <c r="N626" s="60"/>
     </row>
     <row r="627" spans="14:14">
-      <c r="N627" s="66"/>
+      <c r="N627" s="60"/>
     </row>
     <row r="628" spans="14:14">
-      <c r="N628" s="66"/>
+      <c r="N628" s="60"/>
     </row>
     <row r="629" spans="14:14">
-      <c r="N629" s="66"/>
+      <c r="N629" s="60"/>
     </row>
     <row r="630" spans="14:14">
-      <c r="N630" s="66"/>
+      <c r="N630" s="60"/>
     </row>
     <row r="631" spans="14:14">
-      <c r="N631" s="66"/>
+      <c r="N631" s="60"/>
     </row>
     <row r="632" spans="14:14">
-      <c r="N632" s="66"/>
+      <c r="N632" s="60"/>
     </row>
     <row r="633" spans="14:14">
-      <c r="N633" s="66"/>
+      <c r="N633" s="60"/>
     </row>
     <row r="634" spans="14:14">
-      <c r="N634" s="66"/>
+      <c r="N634" s="60"/>
     </row>
     <row r="635" spans="14:14">
-      <c r="N635" s="66"/>
+      <c r="N635" s="60"/>
     </row>
     <row r="636" spans="14:14">
-      <c r="N636" s="66"/>
+      <c r="N636" s="60"/>
     </row>
     <row r="637" spans="14:14">
-      <c r="N637" s="66"/>
+      <c r="N637" s="60"/>
     </row>
     <row r="638" spans="14:14">
-      <c r="N638" s="66"/>
+      <c r="N638" s="60"/>
     </row>
     <row r="639" spans="14:14">
-      <c r="N639" s="66"/>
+      <c r="N639" s="60"/>
     </row>
     <row r="640" spans="14:14">
-      <c r="N640" s="66"/>
+      <c r="N640" s="60"/>
     </row>
     <row r="641" spans="14:14">
-      <c r="N641" s="66"/>
+      <c r="N641" s="60"/>
     </row>
     <row r="642" spans="14:14">
-      <c r="N642" s="66"/>
+      <c r="N642" s="60"/>
     </row>
     <row r="643" spans="14:14">
-      <c r="N643" s="66"/>
+      <c r="N643" s="60"/>
     </row>
     <row r="644" spans="14:14">
-      <c r="N644" s="66"/>
+      <c r="N644" s="60"/>
     </row>
     <row r="645" spans="14:14">
-      <c r="N645" s="66"/>
+      <c r="N645" s="60"/>
     </row>
     <row r="646" spans="14:14">
-      <c r="N646" s="66"/>
+      <c r="N646" s="60"/>
     </row>
     <row r="647" spans="14:14">
-      <c r="N647" s="66"/>
+      <c r="N647" s="60"/>
     </row>
     <row r="648" spans="14:14">
-      <c r="N648" s="66"/>
+      <c r="N648" s="60"/>
     </row>
     <row r="649" spans="14:14">
-      <c r="N649" s="66"/>
+      <c r="N649" s="60"/>
     </row>
     <row r="650" spans="14:14">
-      <c r="N650" s="66"/>
+      <c r="N650" s="60"/>
     </row>
     <row r="651" spans="14:14">
-      <c r="N651" s="66"/>
+      <c r="N651" s="60"/>
     </row>
     <row r="652" spans="14:14">
-      <c r="N652" s="66"/>
+      <c r="N652" s="60"/>
     </row>
     <row r="653" spans="14:14">
-      <c r="N653" s="66"/>
+      <c r="N653" s="60"/>
     </row>
     <row r="654" spans="14:14">
-      <c r="N654" s="66"/>
+      <c r="N654" s="60"/>
     </row>
     <row r="655" spans="14:14">
-      <c r="N655" s="66"/>
+      <c r="N655" s="60"/>
     </row>
     <row r="656" spans="14:14">
-      <c r="N656" s="66"/>
+      <c r="N656" s="60"/>
     </row>
     <row r="657" spans="14:14">
-      <c r="N657" s="66"/>
+      <c r="N657" s="60"/>
     </row>
     <row r="658" spans="14:14">
-      <c r="N658" s="66"/>
+      <c r="N658" s="60"/>
     </row>
     <row r="659" spans="14:14">
-      <c r="N659" s="66"/>
+      <c r="N659" s="60"/>
     </row>
     <row r="660" spans="14:14">
-      <c r="N660" s="66"/>
+      <c r="N660" s="60"/>
     </row>
     <row r="661" spans="14:14">
-      <c r="N661" s="66"/>
+      <c r="N661" s="60"/>
     </row>
     <row r="662" spans="14:14">
-      <c r="N662" s="66"/>
+      <c r="N662" s="60"/>
     </row>
     <row r="663" spans="14:14">
-      <c r="N663" s="66"/>
+      <c r="N663" s="60"/>
     </row>
     <row r="664" spans="14:14">
-      <c r="N664" s="66"/>
+      <c r="N664" s="60"/>
     </row>
     <row r="665" spans="14:14">
-      <c r="N665" s="66"/>
+      <c r="N665" s="60"/>
     </row>
     <row r="666" spans="14:14">
-      <c r="N666" s="66"/>
+      <c r="N666" s="60"/>
     </row>
     <row r="667" spans="14:14">
-      <c r="N667" s="66"/>
+      <c r="N667" s="60"/>
     </row>
     <row r="668" spans="14:14">
-      <c r="N668" s="66"/>
+      <c r="N668" s="60"/>
     </row>
     <row r="669" spans="14:14">
-      <c r="N669" s="66"/>
+      <c r="N669" s="60"/>
     </row>
     <row r="670" spans="14:14">
-      <c r="N670" s="66"/>
+      <c r="N670" s="60"/>
     </row>
     <row r="671" spans="14:14">
-      <c r="N671" s="66"/>
+      <c r="N671" s="60"/>
     </row>
     <row r="672" spans="14:14">
-      <c r="N672" s="66"/>
+      <c r="N672" s="60"/>
     </row>
     <row r="673" spans="14:14">
-      <c r="N673" s="66"/>
+      <c r="N673" s="60"/>
     </row>
     <row r="674" spans="14:14">
-      <c r="N674" s="66"/>
+      <c r="N674" s="60"/>
     </row>
     <row r="675" spans="14:14">
-      <c r="N675" s="66"/>
+      <c r="N675" s="60"/>
     </row>
     <row r="676" spans="14:14">
-      <c r="N676" s="66"/>
+      <c r="N676" s="60"/>
     </row>
     <row r="677" spans="14:14">
-      <c r="N677" s="66"/>
+      <c r="N677" s="60"/>
     </row>
     <row r="678" spans="14:14">
-      <c r="N678" s="66"/>
+      <c r="N678" s="60"/>
     </row>
     <row r="679" spans="14:14">
-      <c r="N679" s="66"/>
+      <c r="N679" s="60"/>
     </row>
     <row r="680" spans="14:14">
-      <c r="N680" s="66"/>
+      <c r="N680" s="60"/>
     </row>
     <row r="681" spans="14:14">
-      <c r="N681" s="66"/>
+      <c r="N681" s="60"/>
     </row>
     <row r="682" spans="14:14">
-      <c r="N682" s="66"/>
+      <c r="N682" s="60"/>
     </row>
     <row r="683" spans="14:14">
-      <c r="N683" s="66"/>
+      <c r="N683" s="60"/>
     </row>
     <row r="684" spans="14:14">
-      <c r="N684" s="66"/>
+      <c r="N684" s="60"/>
     </row>
     <row r="685" spans="14:14">
-      <c r="N685" s="66"/>
+      <c r="N685" s="60"/>
     </row>
     <row r="686" spans="14:14">
-      <c r="N686" s="66"/>
+      <c r="N686" s="60"/>
     </row>
     <row r="687" spans="14:14">
-      <c r="N687" s="66"/>
+      <c r="N687" s="60"/>
     </row>
     <row r="688" spans="14:14">
-      <c r="N688" s="66"/>
+      <c r="N688" s="60"/>
     </row>
     <row r="689" spans="14:14">
-      <c r="N689" s="66"/>
+      <c r="N689" s="60"/>
     </row>
     <row r="690" spans="14:14">
-      <c r="N690" s="66"/>
+      <c r="N690" s="60"/>
     </row>
     <row r="691" spans="14:14">
-      <c r="N691" s="66"/>
+      <c r="N691" s="60"/>
     </row>
     <row r="692" spans="14:14">
-      <c r="N692" s="66"/>
+      <c r="N692" s="60"/>
     </row>
     <row r="693" spans="14:14">
-      <c r="N693" s="66"/>
+      <c r="N693" s="60"/>
     </row>
     <row r="694" spans="14:14">
-      <c r="N694" s="66"/>
+      <c r="N694" s="60"/>
     </row>
     <row r="695" spans="14:14">
-      <c r="N695" s="66"/>
+      <c r="N695" s="60"/>
     </row>
     <row r="696" spans="14:14">
-      <c r="N696" s="66"/>
+      <c r="N696" s="60"/>
     </row>
     <row r="697" spans="14:14">
-      <c r="N697" s="66"/>
+      <c r="N697" s="60"/>
     </row>
     <row r="698" spans="14:14">
-      <c r="N698" s="66"/>
+      <c r="N698" s="60"/>
     </row>
     <row r="699" spans="14:14">
-      <c r="N699" s="66"/>
+      <c r="N699" s="60"/>
     </row>
     <row r="700" spans="14:14">
-      <c r="N700" s="66"/>
+      <c r="N700" s="60"/>
     </row>
     <row r="701" spans="14:14">
-      <c r="N701" s="66"/>
+      <c r="N701" s="60"/>
     </row>
     <row r="702" spans="14:14">
-      <c r="N702" s="66"/>
+      <c r="N702" s="60"/>
     </row>
     <row r="703" spans="14:14">
-      <c r="N703" s="66"/>
+      <c r="N703" s="60"/>
     </row>
     <row r="704" spans="14:14">
-      <c r="N704" s="66"/>
+      <c r="N704" s="60"/>
     </row>
     <row r="705" spans="14:14">
-      <c r="N705" s="66"/>
+      <c r="N705" s="60"/>
     </row>
     <row r="706" spans="14:14">
-      <c r="N706" s="66"/>
+      <c r="N706" s="60"/>
     </row>
     <row r="707" spans="14:14">
-      <c r="N707" s="66"/>
+      <c r="N707" s="60"/>
     </row>
     <row r="708" spans="14:14">
-      <c r="N708" s="66"/>
+      <c r="N708" s="60"/>
     </row>
     <row r="709" spans="14:14">
-      <c r="N709" s="66"/>
+      <c r="N709" s="60"/>
     </row>
     <row r="710" spans="14:14">
-      <c r="N710" s="66"/>
+      <c r="N710" s="60"/>
     </row>
     <row r="711" spans="14:14">
-      <c r="N711" s="66"/>
+      <c r="N711" s="60"/>
     </row>
     <row r="712" spans="14:14">
-      <c r="N712" s="66"/>
+      <c r="N712" s="60"/>
     </row>
     <row r="713" spans="14:14">
-      <c r="N713" s="66"/>
+      <c r="N713" s="60"/>
     </row>
     <row r="714" spans="14:14">
-      <c r="N714" s="66"/>
+      <c r="N714" s="60"/>
     </row>
     <row r="715" spans="14:14">
-      <c r="N715" s="66"/>
+      <c r="N715" s="60"/>
     </row>
     <row r="716" spans="14:14">
-      <c r="N716" s="66"/>
+      <c r="N716" s="60"/>
     </row>
     <row r="717" spans="14:14">
-      <c r="N717" s="66"/>
+      <c r="N717" s="60"/>
     </row>
     <row r="718" spans="14:14">
-      <c r="N718" s="66"/>
+      <c r="N718" s="60"/>
     </row>
     <row r="719" spans="14:14">
-      <c r="N719" s="66"/>
+      <c r="N719" s="60"/>
     </row>
     <row r="720" spans="14:14">
-      <c r="N720" s="66"/>
+      <c r="N720" s="60"/>
     </row>
     <row r="721" spans="14:14">
-      <c r="N721" s="66"/>
+      <c r="N721" s="60"/>
     </row>
     <row r="722" spans="14:14">
-      <c r="N722" s="66"/>
+      <c r="N722" s="60"/>
     </row>
     <row r="723" spans="14:14">
-      <c r="N723" s="66"/>
+      <c r="N723" s="60"/>
     </row>
     <row r="724" spans="14:14">
-      <c r="N724" s="66"/>
+      <c r="N724" s="60"/>
     </row>
     <row r="725" spans="14:14">
-      <c r="N725" s="66"/>
+      <c r="N725" s="60"/>
     </row>
     <row r="726" spans="14:14">
-      <c r="N726" s="66"/>
+      <c r="N726" s="60"/>
     </row>
     <row r="727" spans="14:14">
-      <c r="N727" s="66"/>
+      <c r="N727" s="60"/>
     </row>
     <row r="728" spans="14:14">
-      <c r="N728" s="66"/>
+      <c r="N728" s="60"/>
     </row>
     <row r="729" spans="14:14">
-      <c r="N729" s="66"/>
+      <c r="N729" s="60"/>
     </row>
     <row r="730" spans="14:14">
-      <c r="N730" s="66"/>
+      <c r="N730" s="60"/>
     </row>
     <row r="731" spans="14:14">
-      <c r="N731" s="66"/>
+      <c r="N731" s="60"/>
     </row>
     <row r="732" spans="14:14">
-      <c r="N732" s="66"/>
+      <c r="N732" s="60"/>
     </row>
     <row r="733" spans="14:14">
-      <c r="N733" s="66"/>
+      <c r="N733" s="60"/>
     </row>
     <row r="734" spans="14:14">
-      <c r="N734" s="66"/>
+      <c r="N734" s="60"/>
     </row>
     <row r="735" spans="14:14">
-      <c r="N735" s="66"/>
+      <c r="N735" s="60"/>
     </row>
     <row r="736" spans="14:14">
-      <c r="N736" s="66"/>
+      <c r="N736" s="60"/>
     </row>
     <row r="737" spans="14:14">
-      <c r="N737" s="66"/>
+      <c r="N737" s="60"/>
     </row>
     <row r="738" spans="14:14">
-      <c r="N738" s="66"/>
+      <c r="N738" s="60"/>
     </row>
     <row r="739" spans="14:14">
-      <c r="N739" s="66"/>
+      <c r="N739" s="60"/>
     </row>
     <row r="740" spans="14:14">
-      <c r="N740" s="66"/>
+      <c r="N740" s="60"/>
     </row>
     <row r="741" spans="14:14">
-      <c r="N741" s="66"/>
+      <c r="N741" s="60"/>
     </row>
     <row r="742" spans="14:14">
-      <c r="N742" s="66"/>
+      <c r="N742" s="60"/>
     </row>
     <row r="743" spans="14:14">
-      <c r="N743" s="66"/>
+      <c r="N743" s="60"/>
     </row>
     <row r="744" spans="14:14">
-      <c r="N744" s="66"/>
+      <c r="N744" s="60"/>
     </row>
     <row r="745" spans="14:14">
-      <c r="N745" s="66"/>
+      <c r="N745" s="60"/>
     </row>
     <row r="746" spans="14:14">
-      <c r="N746" s="66"/>
+      <c r="N746" s="60"/>
     </row>
     <row r="747" spans="14:14">
-      <c r="N747" s="66"/>
+      <c r="N747" s="60"/>
     </row>
     <row r="748" spans="14:14">
-      <c r="N748" s="66"/>
+      <c r="N748" s="60"/>
     </row>
     <row r="749" spans="14:14">
-      <c r="N749" s="66"/>
+      <c r="N749" s="60"/>
     </row>
     <row r="750" spans="14:14">
-      <c r="N750" s="66"/>
+      <c r="N750" s="60"/>
     </row>
     <row r="751" spans="14:14">
-      <c r="N751" s="66"/>
+      <c r="N751" s="60"/>
     </row>
     <row r="752" spans="14:14">
-      <c r="N752" s="66"/>
+      <c r="N752" s="60"/>
     </row>
     <row r="753" spans="14:14">
-      <c r="N753" s="66"/>
+      <c r="N753" s="60"/>
     </row>
     <row r="754" spans="14:14">
-      <c r="N754" s="66"/>
+      <c r="N754" s="60"/>
     </row>
     <row r="755" spans="14:14">
-      <c r="N755" s="66"/>
+      <c r="N755" s="60"/>
     </row>
     <row r="756" spans="14:14">
-      <c r="N756" s="66"/>
+      <c r="N756" s="60"/>
     </row>
     <row r="757" spans="14:14">
-      <c r="N757" s="66"/>
+      <c r="N757" s="60"/>
     </row>
     <row r="758" spans="14:14">
-      <c r="N758" s="66"/>
+      <c r="N758" s="60"/>
     </row>
     <row r="759" spans="14:14">
-      <c r="N759" s="66"/>
+      <c r="N759" s="60"/>
     </row>
     <row r="760" spans="14:14">
-      <c r="N760" s="66"/>
+      <c r="N760" s="60"/>
     </row>
     <row r="761" spans="14:14">
-      <c r="N761" s="66"/>
+      <c r="N761" s="60"/>
     </row>
     <row r="762" spans="14:14">
-      <c r="N762" s="66"/>
+      <c r="N762" s="60"/>
     </row>
     <row r="763" spans="14:14">
-      <c r="N763" s="66"/>
+      <c r="N763" s="60"/>
     </row>
     <row r="764" spans="14:14">
-      <c r="N764" s="66"/>
+      <c r="N764" s="60"/>
     </row>
     <row r="765" spans="14:14">
-      <c r="N765" s="66"/>
+      <c r="N765" s="60"/>
     </row>
     <row r="766" spans="14:14">
-      <c r="N766" s="66"/>
+      <c r="N766" s="60"/>
     </row>
     <row r="767" spans="14:14">
-      <c r="N767" s="66"/>
+      <c r="N767" s="60"/>
     </row>
     <row r="768" spans="14:14">
-      <c r="N768" s="66"/>
+      <c r="N768" s="60"/>
     </row>
     <row r="769" spans="14:14">
-      <c r="N769" s="66"/>
+      <c r="N769" s="60"/>
     </row>
     <row r="770" spans="14:14">
-      <c r="N770" s="66"/>
+      <c r="N770" s="60"/>
     </row>
     <row r="771" spans="14:14">
-      <c r="N771" s="66"/>
+      <c r="N771" s="60"/>
     </row>
     <row r="772" spans="14:14">
-      <c r="N772" s="66"/>
+      <c r="N772" s="60"/>
     </row>
     <row r="773" spans="14:14">
-      <c r="N773" s="66"/>
+      <c r="N773" s="60"/>
     </row>
     <row r="774" spans="14:14">
-      <c r="N774" s="66"/>
+      <c r="N774" s="60"/>
     </row>
     <row r="775" spans="14:14">
-      <c r="N775" s="66"/>
+      <c r="N775" s="60"/>
     </row>
     <row r="776" spans="14:14">
-      <c r="N776" s="66"/>
+      <c r="N776" s="60"/>
     </row>
     <row r="777" spans="14:14">
-      <c r="N777" s="66"/>
+      <c r="N777" s="60"/>
     </row>
     <row r="778" spans="14:14">
-      <c r="N778" s="66"/>
+      <c r="N778" s="60"/>
     </row>
     <row r="779" spans="14:14">
-      <c r="N779" s="66"/>
+      <c r="N779" s="60"/>
     </row>
     <row r="780" spans="14:14">
-      <c r="N780" s="66"/>
+      <c r="N780" s="60"/>
     </row>
     <row r="781" spans="14:14">
-      <c r="N781" s="66"/>
+      <c r="N781" s="60"/>
     </row>
     <row r="782" spans="14:14">
-      <c r="N782" s="66"/>
+      <c r="N782" s="60"/>
     </row>
     <row r="783" spans="14:14">
-      <c r="N783" s="66"/>
+      <c r="N783" s="60"/>
     </row>
     <row r="784" spans="14:14">
-      <c r="N784" s="66"/>
+      <c r="N784" s="60"/>
     </row>
     <row r="785" spans="14:14">
-      <c r="N785" s="66"/>
+      <c r="N785" s="60"/>
     </row>
     <row r="786" spans="14:14">
-      <c r="N786" s="66"/>
+      <c r="N786" s="60"/>
     </row>
     <row r="787" spans="14:14">
-      <c r="N787" s="66"/>
+      <c r="N787" s="60"/>
     </row>
     <row r="788" spans="14:14">
-      <c r="N788" s="66"/>
+      <c r="N788" s="60"/>
     </row>
     <row r="789" spans="14:14">
-      <c r="N789" s="66"/>
+      <c r="N789" s="60"/>
     </row>
     <row r="790" spans="14:14">
-      <c r="N790" s="66"/>
+      <c r="N790" s="60"/>
     </row>
     <row r="791" spans="14:14">
-      <c r="N791" s="66"/>
+      <c r="N791" s="60"/>
     </row>
     <row r="792" spans="14:14">
-      <c r="N792" s="66"/>
+      <c r="N792" s="60"/>
     </row>
     <row r="793" spans="14:14">
-      <c r="N793" s="66"/>
+      <c r="N793" s="60"/>
     </row>
     <row r="794" spans="14:14">
-      <c r="N794" s="66"/>
+      <c r="N794" s="60"/>
     </row>
     <row r="795" spans="14:14">
-      <c r="N795" s="66"/>
+      <c r="N795" s="60"/>
     </row>
     <row r="796" spans="14:14">
-      <c r="N796" s="66"/>
+      <c r="N796" s="60"/>
     </row>
     <row r="797" spans="14:14">
-      <c r="N797" s="66"/>
+      <c r="N797" s="60"/>
     </row>
     <row r="798" spans="14:14">
-      <c r="N798" s="66"/>
+      <c r="N798" s="60"/>
     </row>
     <row r="799" spans="14:14">
-      <c r="N799" s="66"/>
+      <c r="N799" s="60"/>
     </row>
     <row r="800" spans="14:14">
-      <c r="N800" s="66"/>
+      <c r="N800" s="60"/>
     </row>
     <row r="801" spans="14:14">
-      <c r="N801" s="66"/>
+      <c r="N801" s="60"/>
     </row>
     <row r="802" spans="14:14">
-      <c r="N802" s="66"/>
+      <c r="N802" s="60"/>
     </row>
     <row r="803" spans="14:14">
-      <c r="N803" s="66"/>
+      <c r="N803" s="60"/>
     </row>
     <row r="804" spans="14:14">
-      <c r="N804" s="66"/>
+      <c r="N804" s="60"/>
     </row>
     <row r="805" spans="14:14">
-      <c r="N805" s="66"/>
+      <c r="N805" s="60"/>
     </row>
     <row r="806" spans="14:14">
-      <c r="N806" s="66"/>
+      <c r="N806" s="60"/>
     </row>
     <row r="807" spans="14:14">
-      <c r="N807" s="66"/>
+      <c r="N807" s="60"/>
     </row>
     <row r="808" spans="14:14">
-      <c r="N808" s="66"/>
+      <c r="N808" s="60"/>
     </row>
     <row r="809" spans="14:14">
-      <c r="N809" s="66"/>
+      <c r="N809" s="60"/>
     </row>
     <row r="810" spans="14:14">
-      <c r="N810" s="66"/>
+      <c r="N810" s="60"/>
     </row>
     <row r="811" spans="14:14">
-      <c r="N811" s="66"/>
+      <c r="N811" s="60"/>
     </row>
     <row r="812" spans="14:14">
-      <c r="N812" s="66"/>
+      <c r="N812" s="60"/>
     </row>
     <row r="813" spans="14:14">
-      <c r="N813" s="66"/>
+      <c r="N813" s="60"/>
     </row>
     <row r="814" spans="14:14">
-      <c r="N814" s="66"/>
+      <c r="N814" s="60"/>
     </row>
     <row r="815" spans="14:14">
-      <c r="N815" s="66"/>
+      <c r="N815" s="60"/>
     </row>
     <row r="816" spans="14:14">
-      <c r="N816" s="66"/>
+      <c r="N816" s="60"/>
     </row>
     <row r="817" spans="14:14">
-      <c r="N817" s="66"/>
+      <c r="N817" s="60"/>
     </row>
     <row r="818" spans="14:14">
-      <c r="N818" s="66"/>
+      <c r="N818" s="60"/>
     </row>
     <row r="819" spans="14:14">
-      <c r="N819" s="66"/>
+      <c r="N819" s="60"/>
     </row>
     <row r="820" spans="14:14">
-      <c r="N820" s="66"/>
+      <c r="N820" s="60"/>
     </row>
     <row r="821" spans="14:14">
-      <c r="N821" s="66"/>
+      <c r="N821" s="60"/>
     </row>
     <row r="822" spans="14:14">
-      <c r="N822" s="66"/>
+      <c r="N822" s="60"/>
     </row>
     <row r="823" spans="14:14">
-      <c r="N823" s="66"/>
+      <c r="N823" s="60"/>
     </row>
     <row r="824" spans="14:14">
-      <c r="N824" s="66"/>
+      <c r="N824" s="60"/>
     </row>
     <row r="825" spans="14:14">
-      <c r="N825" s="66"/>
+      <c r="N825" s="60"/>
     </row>
     <row r="826" spans="14:14">
-      <c r="N826" s="66"/>
+      <c r="N826" s="60"/>
     </row>
     <row r="827" spans="14:14">
-      <c r="N827" s="66"/>
+      <c r="N827" s="60"/>
     </row>
     <row r="828" spans="14:14">
-      <c r="N828" s="66"/>
+      <c r="N828" s="60"/>
     </row>
     <row r="829" spans="14:14">
-      <c r="N829" s="66"/>
+      <c r="N829" s="60"/>
     </row>
     <row r="830" spans="14:14">
-      <c r="N830" s="66"/>
+      <c r="N830" s="60"/>
     </row>
     <row r="831" spans="14:14">
-      <c r="N831" s="66"/>
+      <c r="N831" s="60"/>
     </row>
     <row r="832" spans="14:14">
-      <c r="N832" s="66"/>
+      <c r="N832" s="60"/>
     </row>
     <row r="833" spans="14:14">
-      <c r="N833" s="66"/>
+      <c r="N833" s="60"/>
     </row>
     <row r="834" spans="14:14">
-      <c r="N834" s="66"/>
+      <c r="N834" s="60"/>
     </row>
     <row r="835" spans="14:14">
-      <c r="N835" s="66"/>
+      <c r="N835" s="60"/>
     </row>
     <row r="836" spans="14:14">
-      <c r="N836" s="66"/>
+      <c r="N836" s="60"/>
     </row>
     <row r="837" spans="14:14">
-      <c r="N837" s="66"/>
+      <c r="N837" s="60"/>
     </row>
     <row r="838" spans="14:14">
-      <c r="N838" s="66"/>
+      <c r="N838" s="60"/>
     </row>
     <row r="839" spans="14:14">
-      <c r="N839" s="66"/>
+      <c r="N839" s="60"/>
     </row>
     <row r="840" spans="14:14">
-      <c r="N840" s="66"/>
+      <c r="N840" s="60"/>
     </row>
     <row r="841" spans="14:14">
-      <c r="N841" s="66"/>
+      <c r="N841" s="60"/>
     </row>
     <row r="842" spans="14:14">
-      <c r="N842" s="66"/>
+      <c r="N842" s="60"/>
     </row>
     <row r="843" spans="14:14">
-      <c r="N843" s="66"/>
+      <c r="N843" s="60"/>
     </row>
     <row r="844" spans="14:14">
-      <c r="N844" s="66"/>
+      <c r="N844" s="60"/>
     </row>
     <row r="845" spans="14:14">
-      <c r="N845" s="66"/>
+      <c r="N845" s="60"/>
     </row>
     <row r="846" spans="14:14">
-      <c r="N846" s="66"/>
+      <c r="N846" s="60"/>
     </row>
     <row r="847" spans="14:14">
-      <c r="N847" s="66"/>
+      <c r="N847" s="60"/>
     </row>
     <row r="848" spans="14:14">
-      <c r="N848" s="66"/>
+      <c r="N848" s="60"/>
     </row>
     <row r="849" spans="14:14">
-      <c r="N849" s="66"/>
+      <c r="N849" s="60"/>
     </row>
     <row r="850" spans="14:14">
-      <c r="N850" s="66"/>
+      <c r="N850" s="60"/>
     </row>
     <row r="851" spans="14:14">
-      <c r="N851" s="66"/>
+      <c r="N851" s="60"/>
     </row>
     <row r="852" spans="14:14">
-      <c r="N852" s="66"/>
+      <c r="N852" s="60"/>
     </row>
     <row r="853" spans="14:14">
-      <c r="N853" s="66"/>
+      <c r="N853" s="60"/>
     </row>
     <row r="854" spans="14:14">
-      <c r="N854" s="66"/>
+      <c r="N854" s="60"/>
     </row>
     <row r="855" spans="14:14">
-      <c r="N855" s="66"/>
+      <c r="N855" s="60"/>
     </row>
     <row r="856" spans="14:14">
-      <c r="N856" s="66"/>
+      <c r="N856" s="60"/>
     </row>
     <row r="857" spans="14:14">
-      <c r="N857" s="66"/>
+      <c r="N857" s="60"/>
     </row>
     <row r="858" spans="14:14">
-      <c r="N858" s="66"/>
+      <c r="N858" s="60"/>
     </row>
     <row r="859" spans="14:14">
-      <c r="N859" s="66"/>
+      <c r="N859" s="60"/>
     </row>
     <row r="860" spans="14:14">
-      <c r="N860" s="66"/>
+      <c r="N860" s="60"/>
     </row>
     <row r="861" spans="14:14">
-      <c r="N861" s="66"/>
+      <c r="N861" s="60"/>
     </row>
     <row r="862" spans="14:14">
-      <c r="N862" s="66"/>
+      <c r="N862" s="60"/>
     </row>
     <row r="863" spans="14:14">
-      <c r="N863" s="66"/>
+      <c r="N863" s="60"/>
     </row>
     <row r="864" spans="14:14">
-      <c r="N864" s="66"/>
+      <c r="N864" s="60"/>
     </row>
     <row r="865" spans="14:14">
-      <c r="N865" s="66"/>
+      <c r="N865" s="60"/>
     </row>
     <row r="866" spans="14:14">
-      <c r="N866" s="66"/>
+      <c r="N866" s="60"/>
     </row>
     <row r="867" spans="14:14">
-      <c r="N867" s="66"/>
+      <c r="N867" s="60"/>
     </row>
     <row r="868" spans="14:14">
-      <c r="N868" s="66"/>
+      <c r="N868" s="60"/>
     </row>
     <row r="869" spans="14:14">
-      <c r="N869" s="66"/>
+      <c r="N869" s="60"/>
     </row>
     <row r="870" spans="14:14">
-      <c r="N870" s="66"/>
+      <c r="N870" s="60"/>
     </row>
     <row r="871" spans="14:14">
-      <c r="N871" s="66"/>
+      <c r="N871" s="60"/>
     </row>
     <row r="872" spans="14:14">
-      <c r="N872" s="66"/>
+      <c r="N872" s="60"/>
     </row>
     <row r="873" spans="14:14">
-      <c r="N873" s="66"/>
+      <c r="N873" s="60"/>
     </row>
     <row r="874" spans="14:14">
-      <c r="N874" s="66"/>
+      <c r="N874" s="60"/>
     </row>
     <row r="875" spans="14:14">
-      <c r="N875" s="66"/>
+      <c r="N875" s="60"/>
     </row>
     <row r="876" spans="14:14">
-      <c r="N876" s="66"/>
+      <c r="N876" s="60"/>
     </row>
     <row r="877" spans="14:14">
-      <c r="N877" s="66"/>
+      <c r="N877" s="60"/>
     </row>
     <row r="878" spans="14:14">
-      <c r="N878" s="66"/>
+      <c r="N878" s="60"/>
     </row>
     <row r="879" spans="14:14">
-      <c r="N879" s="66"/>
+      <c r="N879" s="60"/>
     </row>
     <row r="880" spans="14:14">
-      <c r="N880" s="66"/>
+      <c r="N880" s="60"/>
     </row>
     <row r="881" spans="14:14">
-      <c r="N881" s="66"/>
+      <c r="N881" s="60"/>
     </row>
     <row r="882" spans="14:14">
-      <c r="N882" s="66"/>
+      <c r="N882" s="60"/>
     </row>
     <row r="883" spans="14:14">
-      <c r="N883" s="66"/>
+      <c r="N883" s="60"/>
     </row>
     <row r="884" spans="14:14">
-      <c r="N884" s="66"/>
+      <c r="N884" s="60"/>
     </row>
     <row r="885" spans="14:14">
-      <c r="N885" s="66"/>
+      <c r="N885" s="60"/>
     </row>
     <row r="886" spans="14:14">
-      <c r="N886" s="66"/>
+      <c r="N886" s="60"/>
     </row>
     <row r="887" spans="14:14">
-      <c r="N887" s="66"/>
+      <c r="N887" s="60"/>
     </row>
     <row r="888" spans="14:14">
-      <c r="N888" s="66"/>
+      <c r="N888" s="60"/>
     </row>
     <row r="889" spans="14:14">
-      <c r="N889" s="66"/>
+      <c r="N889" s="60"/>
     </row>
     <row r="890" spans="14:14">
-      <c r="N890" s="66"/>
+      <c r="N890" s="60"/>
     </row>
     <row r="891" spans="14:14">
-      <c r="N891" s="66"/>
+      <c r="N891" s="60"/>
     </row>
     <row r="892" spans="14:14">
-      <c r="N892" s="66"/>
+      <c r="N892" s="60"/>
     </row>
     <row r="893" spans="14:14">
-      <c r="N893" s="66"/>
+      <c r="N893" s="60"/>
     </row>
     <row r="894" spans="14:14">
-      <c r="N894" s="66"/>
+      <c r="N894" s="60"/>
     </row>
     <row r="895" spans="14:14">
-      <c r="N895" s="66"/>
+      <c r="N895" s="60"/>
     </row>
     <row r="896" spans="14:14">
-      <c r="N896" s="66"/>
+      <c r="N896" s="60"/>
     </row>
     <row r="897" spans="14:14">
-      <c r="N897" s="66"/>
+      <c r="N897" s="60"/>
     </row>
     <row r="898" spans="14:14">
-      <c r="N898" s="66"/>
+      <c r="N898" s="60"/>
     </row>
     <row r="899" spans="14:14">
-      <c r="N899" s="66"/>
+      <c r="N899" s="60"/>
     </row>
     <row r="900" spans="14:14">
-      <c r="N900" s="66"/>
+      <c r="N900" s="60"/>
     </row>
     <row r="901" spans="14:14">
-      <c r="N901" s="66"/>
+      <c r="N901" s="60"/>
     </row>
     <row r="902" spans="14:14">
-      <c r="N902" s="66"/>
+      <c r="N902" s="60"/>
     </row>
     <row r="903" spans="14:14">
-      <c r="N903" s="66"/>
+      <c r="N903" s="60"/>
     </row>
     <row r="904" spans="14:14">
-      <c r="N904" s="66"/>
+      <c r="N904" s="60"/>
     </row>
     <row r="905" spans="14:14">
-      <c r="N905" s="66"/>
+      <c r="N905" s="60"/>
     </row>
     <row r="906" spans="14:14">
-      <c r="N906" s="66"/>
+      <c r="N906" s="60"/>
     </row>
     <row r="907" spans="14:14">
-      <c r="N907" s="66"/>
+      <c r="N907" s="60"/>
     </row>
     <row r="908" spans="14:14">
-      <c r="N908" s="66"/>
+      <c r="N908" s="60"/>
     </row>
     <row r="909" spans="14:14">
-      <c r="N909" s="66"/>
+      <c r="N909" s="60"/>
     </row>
     <row r="910" spans="14:14">
-      <c r="N910" s="66"/>
+      <c r="N910" s="60"/>
     </row>
     <row r="911" spans="14:14">
-      <c r="N911" s="66"/>
+      <c r="N911" s="60"/>
     </row>
     <row r="912" spans="14:14">
-      <c r="N912" s="66"/>
+      <c r="N912" s="60"/>
     </row>
     <row r="913" spans="14:14">
-      <c r="N913" s="66"/>
+      <c r="N913" s="60"/>
     </row>
     <row r="914" spans="14:14">
-      <c r="N914" s="66"/>
+      <c r="N914" s="60"/>
     </row>
     <row r="915" spans="14:14">
-      <c r="N915" s="66"/>
+      <c r="N915" s="60"/>
     </row>
     <row r="916" spans="14:14">
-      <c r="N916" s="66"/>
+      <c r="N916" s="60"/>
     </row>
     <row r="917" spans="14:14">
-      <c r="N917" s="66"/>
+      <c r="N917" s="60"/>
     </row>
     <row r="918" spans="14:14">
-      <c r="N918" s="66"/>
+      <c r="N918" s="60"/>
     </row>
     <row r="919" spans="14:14">
-      <c r="N919" s="66"/>
+      <c r="N919" s="60"/>
     </row>
     <row r="920" spans="14:14">
-      <c r="N920" s="66"/>
+      <c r="N920" s="60"/>
     </row>
     <row r="921" spans="14:14">
-      <c r="N921" s="66"/>
+      <c r="N921" s="60"/>
     </row>
     <row r="922" spans="14:14">
-      <c r="N922" s="66"/>
+      <c r="N922" s="60"/>
     </row>
     <row r="923" spans="14:14">
-      <c r="N923" s="66"/>
+      <c r="N923" s="60"/>
     </row>
     <row r="924" spans="14:14">
-      <c r="N924" s="66"/>
+      <c r="N924" s="60"/>
     </row>
     <row r="925" spans="14:14">
-      <c r="N925" s="66"/>
+      <c r="N925" s="60"/>
     </row>
     <row r="926" spans="14:14">
-      <c r="N926" s="66"/>
+      <c r="N926" s="60"/>
     </row>
     <row r="927" spans="14:14">
-      <c r="N927" s="66"/>
+      <c r="N927" s="60"/>
     </row>
     <row r="928" spans="14:14">
-      <c r="N928" s="66"/>
+      <c r="N928" s="60"/>
     </row>
     <row r="929" spans="14:14">
-      <c r="N929" s="66"/>
+      <c r="N929" s="60"/>
     </row>
     <row r="930" spans="14:14">
-      <c r="N930" s="66"/>
+      <c r="N930" s="60"/>
     </row>
     <row r="931" spans="14:14">
-      <c r="N931" s="66"/>
+      <c r="N931" s="60"/>
     </row>
     <row r="932" spans="14:14">
-      <c r="N932" s="66"/>
+      <c r="N932" s="60"/>
     </row>
     <row r="933" spans="14:14">
-      <c r="N933" s="66"/>
+      <c r="N933" s="60"/>
     </row>
     <row r="934" spans="14:14">
-      <c r="N934" s="66"/>
+      <c r="N934" s="60"/>
     </row>
     <row r="935" spans="14:14">
-      <c r="N935" s="66"/>
+      <c r="N935" s="60"/>
     </row>
     <row r="936" spans="14:14">
-      <c r="N936" s="66"/>
+      <c r="N936" s="60"/>
     </row>
     <row r="937" spans="14:14">
-      <c r="N937" s="66"/>
+      <c r="N937" s="60"/>
     </row>
     <row r="938" spans="14:14">
-      <c r="N938" s="66"/>
+      <c r="N938" s="60"/>
     </row>
     <row r="939" spans="14:14">
-      <c r="N939" s="66"/>
+      <c r="N939" s="60"/>
     </row>
     <row r="940" spans="14:14">
-      <c r="N940" s="66"/>
+      <c r="N940" s="60"/>
     </row>
     <row r="941" spans="14:14">
-      <c r="N941" s="66"/>
+      <c r="N941" s="60"/>
     </row>
     <row r="942" spans="14:14">
-      <c r="N942" s="66"/>
+      <c r="N942" s="60"/>
     </row>
     <row r="943" spans="14:14">
-      <c r="N943" s="66"/>
+      <c r="N943" s="60"/>
     </row>
     <row r="944" spans="14:14">
-      <c r="N944" s="66"/>
+      <c r="N944" s="60"/>
     </row>
     <row r="945" spans="14:14">
-      <c r="N945" s="66"/>
+      <c r="N945" s="60"/>
     </row>
     <row r="946" spans="14:14">
-      <c r="N946" s="66"/>
+      <c r="N946" s="60"/>
     </row>
     <row r="947" spans="14:14">
-      <c r="N947" s="66"/>
+      <c r="N947" s="60"/>
     </row>
     <row r="948" spans="14:14">
-      <c r="N948" s="66"/>
+      <c r="N948" s="60"/>
     </row>
     <row r="949" spans="14:14">
-      <c r="N949" s="66"/>
+      <c r="N949" s="60"/>
     </row>
     <row r="950" spans="14:14">
-      <c r="N950" s="66"/>
+      <c r="N950" s="60"/>
     </row>
     <row r="951" spans="14:14">
-      <c r="N951" s="66"/>
+      <c r="N951" s="60"/>
     </row>
     <row r="952" spans="14:14">
-      <c r="N952" s="66"/>
+      <c r="N952" s="60"/>
     </row>
     <row r="953" spans="14:14">
-      <c r="N953" s="66"/>
+      <c r="N953" s="60"/>
     </row>
     <row r="954" spans="14:14">
-      <c r="N954" s="66"/>
+      <c r="N954" s="60"/>
     </row>
     <row r="955" spans="14:14">
-      <c r="N955" s="66"/>
+      <c r="N955" s="60"/>
     </row>
     <row r="956" spans="14:14">
-      <c r="N956" s="66"/>
+      <c r="N956" s="60"/>
     </row>
     <row r="957" spans="14:14">
-      <c r="N957" s="66"/>
+      <c r="N957" s="60"/>
     </row>
     <row r="958" spans="14:14">
-      <c r="N958" s="66"/>
+      <c r="N958" s="60"/>
     </row>
     <row r="959" spans="14:14">
-      <c r="N959" s="66"/>
+      <c r="N959" s="60"/>
     </row>
     <row r="960" spans="14:14">
-      <c r="N960" s="66"/>
+      <c r="N960" s="60"/>
     </row>
     <row r="961" spans="14:14">
-      <c r="N961" s="66"/>
+      <c r="N961" s="60"/>
     </row>
     <row r="962" spans="14:14">
-      <c r="N962" s="66"/>
+      <c r="N962" s="60"/>
     </row>
     <row r="963" spans="14:14">
-      <c r="N963" s="66"/>
+      <c r="N963" s="60"/>
     </row>
     <row r="964" spans="14:14">
-      <c r="N964" s="66"/>
+      <c r="N964" s="60"/>
     </row>
     <row r="965" spans="14:14">
-      <c r="N965" s="66"/>
+      <c r="N965" s="60"/>
     </row>
     <row r="966" spans="14:14">
-      <c r="N966" s="66"/>
+      <c r="N966" s="60"/>
     </row>
     <row r="967" spans="14:14">
-      <c r="N967" s="66"/>
+      <c r="N967" s="60"/>
     </row>
     <row r="968" spans="14:14">
-      <c r="N968" s="66"/>
+      <c r="N968" s="60"/>
     </row>
     <row r="969" spans="14:14">
-      <c r="N969" s="66"/>
+      <c r="N969" s="60"/>
     </row>
     <row r="970" spans="14:14">
-      <c r="N970" s="66"/>
+      <c r="N970" s="60"/>
     </row>
     <row r="971" spans="14:14">
-      <c r="N971" s="66"/>
+      <c r="N971" s="60"/>
     </row>
     <row r="972" spans="14:14">
-      <c r="N972" s="66"/>
+      <c r="N972" s="60"/>
     </row>
     <row r="973" spans="14:14">
-      <c r="N973" s="66"/>
+      <c r="N973" s="60"/>
     </row>
     <row r="974" spans="14:14">
-      <c r="N974" s="66"/>
+      <c r="N974" s="60"/>
     </row>
     <row r="975" spans="14:14">
-      <c r="N975" s="66"/>
+      <c r="N975" s="60"/>
     </row>
     <row r="976" spans="14:14">
-      <c r="N976" s="66"/>
+      <c r="N976" s="60"/>
     </row>
     <row r="977" spans="14:14">
-      <c r="N977" s="66"/>
+      <c r="N977" s="60"/>
     </row>
     <row r="978" spans="14:14">
-      <c r="N978" s="66"/>
+      <c r="N978" s="60"/>
     </row>
     <row r="979" spans="14:14">
-      <c r="N979" s="66"/>
+      <c r="N979" s="60"/>
     </row>
     <row r="980" spans="14:14">
-      <c r="N980" s="66"/>
+      <c r="N980" s="60"/>
     </row>
     <row r="981" spans="14:14">
-      <c r="N981" s="66"/>
+      <c r="N981" s="60"/>
     </row>
     <row r="982" spans="14:14">
-      <c r="N982" s="66"/>
+      <c r="N982" s="60"/>
     </row>
     <row r="983" spans="14:14">
-      <c r="N983" s="66"/>
+      <c r="N983" s="60"/>
     </row>
     <row r="984" spans="14:14">
-      <c r="N984" s="66"/>
+      <c r="N984" s="60"/>
     </row>
     <row r="985" spans="14:14">
-      <c r="N985" s="66"/>
+      <c r="N985" s="60"/>
     </row>
     <row r="986" spans="14:14">
-      <c r="N986" s="66"/>
+      <c r="N986" s="60"/>
     </row>
     <row r="987" spans="14:14">
-      <c r="N987" s="66"/>
+      <c r="N987" s="60"/>
     </row>
     <row r="988" spans="14:14">
-      <c r="N988" s="66"/>
+      <c r="N988" s="60"/>
     </row>
     <row r="989" spans="14:14">
-      <c r="N989" s="66"/>
+      <c r="N989" s="60"/>
     </row>
     <row r="990" spans="14:14">
-      <c r="N990" s="66"/>
+      <c r="N990" s="60"/>
     </row>
     <row r="991" spans="14:14">
-      <c r="N991" s="66"/>
+      <c r="N991" s="60"/>
     </row>
     <row r="992" spans="14:14">
-      <c r="N992" s="66"/>
+      <c r="N992" s="60"/>
     </row>
     <row r="993" spans="14:14">
-      <c r="N993" s="66"/>
+      <c r="N993" s="60"/>
     </row>
     <row r="994" spans="14:14">
-      <c r="N994" s="66"/>
+      <c r="N994" s="60"/>
     </row>
     <row r="995" spans="14:14">
-      <c r="N995" s="66"/>
+      <c r="N995" s="60"/>
     </row>
     <row r="996" spans="14:14">
-      <c r="N996" s="66"/>
+      <c r="N996" s="60"/>
     </row>
     <row r="997" spans="14:14">
-      <c r="N997" s="66"/>
+      <c r="N997" s="60"/>
     </row>
     <row r="998" spans="14:14">
-      <c r="N998" s="66"/>
+      <c r="N998" s="60"/>
     </row>
     <row r="999" spans="14:14">
-      <c r="N999" s="66"/>
+      <c r="N999" s="60"/>
     </row>
     <row r="1000" spans="14:14">
-      <c r="N1000" s="66"/>
+      <c r="N1000" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6657,491 +6700,484 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D48C19-764A-4D1C-BF9B-21FC3777551C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC29AD8-2B95-4D9E-B82F-98636BA777E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A03CEB-73CD-4C23-AD86-4E6111CE8107}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="69"/>
+    <col min="3" max="3" width="24.140625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="69" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="82">
+      <c r="A1" s="70">
         <v>1</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="82">
+      <c r="A2" s="70">
         <v>2</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="72" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="84">
+      <c r="A3" s="73">
         <v>3</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="85">
+      <c r="A4" s="75">
         <v>4</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="74" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="84">
+      <c r="A5" s="73">
         <v>5</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="79"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="83">
+      <c r="A6" s="80">
         <v>6</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="74" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="85">
+      <c r="A7" s="75">
         <v>7</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="84">
+      <c r="A8" s="73">
         <v>8</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="81" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="83">
+      <c r="A9" s="80">
         <v>9</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="77" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="83">
+      <c r="A10" s="80">
         <v>10</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="72" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="83">
+      <c r="A11" s="80">
         <v>11</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="82" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="83">
+      <c r="A12" s="80">
         <v>12</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="74" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="83">
+      <c r="A13" s="80">
         <v>13</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="82" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="83">
+      <c r="A14" s="80">
         <v>14</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="82" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="83">
+      <c r="A15" s="80">
         <v>15</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="74" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="85">
+      <c r="A16" s="75">
         <v>16</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="74" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="82">
+      <c r="A17" s="70">
         <v>17</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="82">
+      <c r="A18" s="70">
         <v>18</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="76" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="84">
+      <c r="A19" s="73">
         <v>19</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="72" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="83">
+      <c r="A20" s="80">
         <v>20</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="74" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="85">
+      <c r="A21" s="75">
         <v>21</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="74" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="82">
+      <c r="A22" s="70">
         <v>22</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="84">
+      <c r="A23" s="73">
         <v>23</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="83">
+      <c r="A24" s="80">
         <v>24</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="74" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="83">
+      <c r="A25" s="80">
         <v>25</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="83">
+      <c r="A26" s="80">
         <v>26</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="84">
+      <c r="A27" s="73">
         <v>27</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="72" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="85">
+      <c r="A28" s="75">
         <v>28</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="74" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="84">
+      <c r="A29" s="73">
         <v>29</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="76" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="83">
+      <c r="A30" s="80">
         <v>30</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="71" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="85">
+      <c r="A31" s="75">
         <v>31</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="71" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="82">
+      <c r="A32" s="70">
         <v>32</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="72" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="84">
+      <c r="A33" s="73">
         <v>33</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="72" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="85">
+      <c r="A34" s="75">
         <v>34</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="74" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="84">
+      <c r="A35" s="73">
         <v>35</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="72" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="83">
+      <c r="A36" s="80">
         <v>36</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="72" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="84">
+      <c r="A37" s="73">
         <v>37</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="72" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="85">
+      <c r="A38" s="75">
         <v>38</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="72" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="82">
+      <c r="A39" s="70">
         <v>39</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="74" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="84">
+      <c r="A40" s="73">
         <v>40</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="74" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="83">
+      <c r="A41" s="80">
         <v>41</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="78" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="83">
+      <c r="A42" s="80">
         <v>42</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="78" t="s">
         <v>107</v>
       </c>
     </row>
